--- a/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_7_7.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/750000/Output_7_7.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-1683859.973909887</v>
+        <v>-1685564.326046599</v>
       </c>
     </row>
     <row r="7">
@@ -511,7 +511,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>1374511.522853286</v>
+        <v>1374511.522853287</v>
       </c>
     </row>
     <row r="8">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>603248.4937673431</v>
+        <v>603248.4937673429</v>
       </c>
     </row>
     <row r="9">
@@ -656,19 +656,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>66.75433449706937</v>
       </c>
       <c r="C2" t="n">
         <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="E2" t="n">
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>241.0142888776591</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
         <v>15.30273751513505</v>
@@ -677,7 +677,7 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J2" t="n">
         <v>11.94928935461252</v>
@@ -704,13 +704,13 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R2" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
       </c>
       <c r="T2" t="n">
-        <v>0</v>
+        <v>223.0958495641314</v>
       </c>
       <c r="U2" t="n">
         <v>0</v>
@@ -719,10 +719,10 @@
         <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>175.0426595591498</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X2" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -738,13 +738,13 @@
         <v>0</v>
       </c>
       <c r="C3" t="n">
-        <v>172.7084989883157</v>
+        <v>55.57566235103577</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -753,13 +753,13 @@
         <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -789,13 +789,13 @@
         <v>0</v>
       </c>
       <c r="T3" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U3" t="n">
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W3" t="n">
         <v>241.0142888776591</v>
@@ -804,7 +804,7 @@
         <v>205.7729852034775</v>
       </c>
       <c r="Y3" t="n">
-        <v>45.20536318881179</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -856,7 +856,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
         <v>0</v>
@@ -871,7 +871,7 @@
         <v>0</v>
       </c>
       <c r="U4" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -883,7 +883,7 @@
         <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>130.4655268502615</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -899,25 +899,25 @@
         <v>0</v>
       </c>
       <c r="D5" t="n">
-        <v>183.4693513325732</v>
+        <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
         <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
+        <v>235.9477392089838</v>
+      </c>
+      <c r="H5" t="n">
         <v>241.0142888776591</v>
       </c>
-      <c r="H5" t="n">
-        <v>0</v>
-      </c>
       <c r="I5" t="n">
-        <v>0</v>
+        <v>210.4758895704059</v>
       </c>
       <c r="J5" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -938,7 +938,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>9.990699214544804</v>
+        <v>0</v>
       </c>
       <c r="R5" t="n">
         <v>0</v>
@@ -950,7 +950,7 @@
         <v>0</v>
       </c>
       <c r="U5" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -962,7 +962,7 @@
         <v>0</v>
       </c>
       <c r="Y5" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -987,13 +987,13 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>0</v>
+        <v>137.3435171632106</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I6" t="n">
-        <v>89.39663285141508</v>
+        <v>0</v>
       </c>
       <c r="J6" t="n">
         <v>0.7465913262578567</v>
@@ -1020,22 +1020,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>14.59515906968678</v>
+        <v>100.1578341526431</v>
       </c>
       <c r="S6" t="n">
-        <v>171.6831711038378</v>
+        <v>117.8891944391773</v>
       </c>
       <c r="T6" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U6" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V6" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W6" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="X6" t="n">
         <v>0</v>
@@ -1051,7 +1051,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>110.9174757594852</v>
+        <v>0</v>
       </c>
       <c r="C7" t="n">
         <v>0</v>
@@ -1078,7 +1078,7 @@
         <v>0</v>
       </c>
       <c r="K7" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
@@ -1145,16 +1145,16 @@
         <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
-        <v>15.30273751513505</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="I8" t="n">
         <v>0</v>
       </c>
       <c r="J8" t="n">
-        <v>11.94928935461252</v>
+        <v>0</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -1178,22 +1178,22 @@
         <v>9.990699214544804</v>
       </c>
       <c r="R8" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>18.29749587628852</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
         <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>241.0142888776591</v>
+        <v>195.4186406871859</v>
       </c>
       <c r="V8" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="W8" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="X8" t="n">
         <v>0</v>
@@ -1218,10 +1218,10 @@
         <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>157.6450804554009</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>145.0692123933839</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1233,7 +1233,7 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>0.7465913262578567</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -1260,13 +1260,13 @@
         <v>0</v>
       </c>
       <c r="S9" t="n">
-        <v>0</v>
+        <v>171.6831711038378</v>
       </c>
       <c r="T9" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U9" t="n">
-        <v>158.0524920742923</v>
+        <v>0</v>
       </c>
       <c r="V9" t="n">
         <v>232.8005871494253</v>
@@ -1275,7 +1275,7 @@
         <v>241.0142888776591</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>89.66547645067541</v>
       </c>
       <c r="Y9" t="n">
         <v>0</v>
@@ -1315,7 +1315,7 @@
         <v>0</v>
       </c>
       <c r="K10" t="n">
-        <v>22.26949182588285</v>
+        <v>0</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -1330,7 +1330,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>2.721440735106512</v>
+        <v>0</v>
       </c>
       <c r="Q10" t="n">
         <v>0</v>
@@ -1339,7 +1339,7 @@
         <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>133.186967585368</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1354,7 +1354,7 @@
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>108.1960350243787</v>
+        <v>0</v>
       </c>
       <c r="Y10" t="n">
         <v>0</v>
@@ -1367,25 +1367,25 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>362.3140662372057</v>
+        <v>362.3140662372056</v>
       </c>
       <c r="C11" t="n">
-        <v>344.8531163447327</v>
+        <v>344.8531163447326</v>
       </c>
       <c r="D11" t="n">
-        <v>334.2632661944081</v>
+        <v>270.7634961972039</v>
       </c>
       <c r="E11" t="n">
-        <v>361.5105946459869</v>
+        <v>361.5105946459868</v>
       </c>
       <c r="F11" t="n">
         <v>386.4562703154365</v>
       </c>
       <c r="G11" t="n">
-        <v>392.5197736437242</v>
+        <v>392.5197736437241</v>
       </c>
       <c r="H11" t="n">
-        <v>294.8530230257433</v>
+        <v>0</v>
       </c>
       <c r="I11" t="n">
         <v>0</v>
@@ -1421,22 +1421,22 @@
         <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>43.22653585500021</v>
+        <v>192.3312167192736</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>230.7368224059507</v>
       </c>
       <c r="V11" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W11" t="n">
-        <v>328.8211932911381</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>349.3113252521941</v>
       </c>
       <c r="Y11" t="n">
-        <v>365.8181632297787</v>
+        <v>365.8181632297786</v>
       </c>
     </row>
     <row r="12">
@@ -1464,10 +1464,10 @@
         <v>136.0790998739098</v>
       </c>
       <c r="H12" t="n">
-        <v>100.0238351529858</v>
+        <v>100.0238351529859</v>
       </c>
       <c r="I12" t="n">
-        <v>45.86296740838223</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J12" t="n">
         <v>0</v>
@@ -1494,7 +1494,7 @@
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>21.65304841868478</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S12" t="n">
         <v>148.1971745240615</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>159.4122047556624</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>128.1956975919374</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>125.0012725966563</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -1546,7 +1546,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>103.1522558959534</v>
+        <v>0</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -1573,28 +1573,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>185.1231296267667</v>
       </c>
       <c r="T13" t="n">
         <v>202.9965309021383</v>
       </c>
       <c r="U13" t="n">
-        <v>0.6165940521580228</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V13" t="n">
-        <v>0</v>
+        <v>231.717867897553</v>
       </c>
       <c r="W13" t="n">
         <v>0</v>
       </c>
       <c r="X13" t="n">
-        <v>205.2898799627622</v>
+        <v>127.9402130575348</v>
       </c>
       <c r="Y13" t="n">
-        <v>198.1648779258199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -1604,28 +1604,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>362.3140662372057</v>
+        <v>362.3140662372056</v>
       </c>
       <c r="C14" t="n">
-        <v>0</v>
+        <v>344.8531163447326</v>
       </c>
       <c r="D14" t="n">
-        <v>334.2632661944081</v>
+        <v>334.263266194408</v>
       </c>
       <c r="E14" t="n">
-        <v>361.5105946459869</v>
+        <v>361.5105946459868</v>
       </c>
       <c r="F14" t="n">
         <v>386.4562703154365</v>
       </c>
       <c r="G14" t="n">
-        <v>392.5197736437242</v>
+        <v>392.5197736437241</v>
       </c>
       <c r="H14" t="n">
         <v>294.8530230257433</v>
       </c>
       <c r="I14" t="n">
-        <v>44.08240257462623</v>
+        <v>0</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -1655,7 +1655,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>134.7491374664341</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
@@ -1664,16 +1664,16 @@
         <v>230.7368224059507</v>
       </c>
       <c r="V14" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>0</v>
+        <v>141.3109067401867</v>
       </c>
       <c r="X14" t="n">
         <v>349.3113252521941</v>
       </c>
       <c r="Y14" t="n">
-        <v>365.8181632297787</v>
+        <v>365.8181632297786</v>
       </c>
     </row>
     <row r="15">
@@ -1774,16 +1774,16 @@
         <v>0</v>
       </c>
       <c r="F16" t="n">
-        <v>125.0012725966563</v>
+        <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>146.5111589513636</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>23.94861188477823</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>103.1522558959534</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,28 +1810,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>185.1231296267668</v>
+        <v>185.1231296267667</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>174.0436599535537</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>265.8414332948985</v>
       </c>
       <c r="V16" t="n">
-        <v>231.7178678975531</v>
+        <v>231.717867897553</v>
       </c>
       <c r="W16" t="n">
-        <v>0</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X16" t="n">
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>198.1648779258199</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -1841,28 +1841,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>300.9225718776361</v>
+        <v>300.9225718776359</v>
       </c>
       <c r="C17" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D17" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E17" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864171</v>
       </c>
       <c r="F17" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G17" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841544</v>
       </c>
       <c r="H17" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661735</v>
       </c>
       <c r="I17" t="n">
-        <v>37.5577972534562</v>
+        <v>37.55779725345604</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -1892,25 +1892,25 @@
         <v>0</v>
       </c>
       <c r="S17" t="n">
-        <v>73.35764310686449</v>
+        <v>73.35764310686433</v>
       </c>
       <c r="T17" t="n">
-        <v>130.9397223597041</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U17" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V17" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842902</v>
       </c>
       <c r="W17" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315683</v>
       </c>
       <c r="X17" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y17" t="n">
-        <v>304.4266688702091</v>
+        <v>304.4266688702089</v>
       </c>
     </row>
     <row r="18">
@@ -1999,28 +1999,28 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>98.02071039609278</v>
+        <v>98.02071039609262</v>
       </c>
       <c r="C19" t="n">
-        <v>85.43555131278332</v>
+        <v>85.43555131278316</v>
       </c>
       <c r="D19" t="n">
-        <v>66.80420323236784</v>
+        <v>66.80420323236768</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>64.6226928607245</v>
       </c>
       <c r="F19" t="n">
         <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>85.11966459179403</v>
+        <v>85.11966459179386</v>
       </c>
       <c r="H19" t="n">
-        <v>70.99113916484799</v>
+        <v>70.99113916484785</v>
       </c>
       <c r="I19" t="n">
-        <v>41.76076153638385</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2047,28 +2047,28 @@
         <v>0</v>
       </c>
       <c r="R19" t="n">
-        <v>47.81864454462669</v>
+        <v>47.81864454462654</v>
       </c>
       <c r="S19" t="n">
-        <v>123.7316352671972</v>
+        <v>83.61028981829649</v>
       </c>
       <c r="T19" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425686</v>
       </c>
       <c r="U19" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V19" t="n">
-        <v>153.0669594134195</v>
+        <v>170.3263735379833</v>
       </c>
       <c r="W19" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507463</v>
       </c>
       <c r="X19" t="n">
-        <v>143.8983856031927</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y19" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662501</v>
       </c>
     </row>
     <row r="20">
@@ -2078,28 +2078,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C20" t="n">
-        <v>283.461621985163</v>
+        <v>283.4616219851629</v>
       </c>
       <c r="D20" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348383</v>
       </c>
       <c r="E20" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F20" t="n">
-        <v>325.0647759558669</v>
+        <v>325.0647759558668</v>
       </c>
       <c r="G20" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H20" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I20" t="n">
-        <v>37.55779725345622</v>
+        <v>37.55779725345612</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -2129,25 +2129,25 @@
         <v>0</v>
       </c>
       <c r="S20" t="n">
-        <v>73.35764310686449</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T20" t="n">
-        <v>130.9397223597041</v>
+        <v>130.9397223597039</v>
       </c>
       <c r="U20" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V20" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W20" t="n">
-        <v>267.4296989315685</v>
+        <v>267.4296989315684</v>
       </c>
       <c r="X20" t="n">
-        <v>287.9198308926245</v>
+        <v>287.9198308926244</v>
       </c>
       <c r="Y20" t="n">
-        <v>304.4266688702091</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="21">
@@ -2236,28 +2236,28 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>98.02071039609278</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C22" t="n">
-        <v>85.43555131278332</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D22" t="n">
-        <v>66.80420323236784</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E22" t="n">
-        <v>64.62269286072465</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F22" t="n">
-        <v>63.60977823708673</v>
+        <v>44.99831914289133</v>
       </c>
       <c r="G22" t="n">
-        <v>85.11966459179403</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>70.99113916484799</v>
+        <v>70.99113916484792</v>
       </c>
       <c r="I22" t="n">
-        <v>41.76076153638385</v>
+        <v>0</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -2284,28 +2284,28 @@
         <v>0</v>
       </c>
       <c r="R22" t="n">
-        <v>47.81864454462669</v>
+        <v>47.81864454462661</v>
       </c>
       <c r="S22" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T22" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U22" t="n">
-        <v>204.4499389353289</v>
+        <v>204.4499389353288</v>
       </c>
       <c r="V22" t="n">
-        <v>170.3263735379835</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W22" t="n">
-        <v>59.21984332837198</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X22" t="n">
-        <v>143.8983856031927</v>
+        <v>143.8983856031925</v>
       </c>
       <c r="Y22" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="23">
@@ -2315,28 +2315,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>300.9225718776361</v>
+        <v>300.922571877636</v>
       </c>
       <c r="C23" t="n">
         <v>283.461621985163</v>
       </c>
       <c r="D23" t="n">
-        <v>272.8717718348385</v>
+        <v>272.8717718348384</v>
       </c>
       <c r="E23" t="n">
-        <v>300.1191002864173</v>
+        <v>300.1191002864172</v>
       </c>
       <c r="F23" t="n">
         <v>325.0647759558669</v>
       </c>
       <c r="G23" t="n">
-        <v>331.1282792841546</v>
+        <v>331.1282792841545</v>
       </c>
       <c r="H23" t="n">
-        <v>233.4615286661737</v>
+        <v>233.4615286661736</v>
       </c>
       <c r="I23" t="n">
-        <v>37.5577972534562</v>
+        <v>37.55779725345614</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -2366,16 +2366,16 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>73.35764310686449</v>
+        <v>73.35764310686442</v>
       </c>
       <c r="T23" t="n">
-        <v>130.9397223597041</v>
+        <v>130.939722359704</v>
       </c>
       <c r="U23" t="n">
-        <v>169.3453280463811</v>
+        <v>169.345328046381</v>
       </c>
       <c r="V23" t="n">
-        <v>245.9409886842904</v>
+        <v>245.9409886842903</v>
       </c>
       <c r="W23" t="n">
         <v>267.4296989315685</v>
@@ -2384,7 +2384,7 @@
         <v>287.9198308926245</v>
       </c>
       <c r="Y23" t="n">
-        <v>304.4266688702091</v>
+        <v>304.426668870209</v>
       </c>
     </row>
     <row r="24">
@@ -2473,28 +2473,28 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>98.02071039609278</v>
+        <v>98.02071039609272</v>
       </c>
       <c r="C25" t="n">
-        <v>85.43555131278332</v>
+        <v>85.43555131278326</v>
       </c>
       <c r="D25" t="n">
-        <v>66.80420323236784</v>
+        <v>66.80420323236778</v>
       </c>
       <c r="E25" t="n">
-        <v>0</v>
+        <v>64.6226928607246</v>
       </c>
       <c r="F25" t="n">
         <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>85.11966459179403</v>
+        <v>44.99831914289088</v>
       </c>
       <c r="H25" t="n">
-        <v>70.99113916484799</v>
+        <v>70.99113916484795</v>
       </c>
       <c r="I25" t="n">
-        <v>41.76076153638385</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,28 +2521,28 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>47.81864454462669</v>
+        <v>47.81864454462662</v>
       </c>
       <c r="S25" t="n">
-        <v>123.7316352671972</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T25" t="n">
-        <v>141.6050365425688</v>
+        <v>141.6050365425687</v>
       </c>
       <c r="U25" t="n">
         <v>204.4499389353289</v>
       </c>
       <c r="V25" t="n">
-        <v>170.3263735379835</v>
+        <v>170.3263735379834</v>
       </c>
       <c r="W25" t="n">
-        <v>204.7117285507465</v>
+        <v>204.7117285507464</v>
       </c>
       <c r="X25" t="n">
-        <v>126.6389714786293</v>
+        <v>143.8983856031926</v>
       </c>
       <c r="Y25" t="n">
-        <v>136.7733835662503</v>
+        <v>136.7733835662502</v>
       </c>
     </row>
     <row r="26">
@@ -2573,7 +2573,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I26" t="n">
-        <v>37.5577972534561</v>
+        <v>37.55779725345612</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -2603,7 +2603,7 @@
         <v>0</v>
       </c>
       <c r="S26" t="n">
-        <v>73.35764310686439</v>
+        <v>73.3576431068644</v>
       </c>
       <c r="T26" t="n">
         <v>130.9397223597039</v>
@@ -2710,16 +2710,16 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>98.02071039609268</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C28" t="n">
-        <v>85.43555131278322</v>
+        <v>85.43555131278323</v>
       </c>
       <c r="D28" t="n">
-        <v>66.80420323236774</v>
+        <v>66.80420323236775</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
@@ -2728,10 +2728,10 @@
         <v>85.11966459179393</v>
       </c>
       <c r="H28" t="n">
-        <v>70.99113916484791</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
-        <v>41.76076153638375</v>
+        <v>30.86979371594555</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -2758,10 +2758,10 @@
         <v>0</v>
       </c>
       <c r="R28" t="n">
-        <v>47.81864454462659</v>
+        <v>47.81864454462661</v>
       </c>
       <c r="S28" t="n">
-        <v>106.472221142636</v>
+        <v>123.7316352671971</v>
       </c>
       <c r="T28" t="n">
         <v>141.6050365425687</v>
@@ -2810,7 +2810,7 @@
         <v>233.4615286661736</v>
       </c>
       <c r="I29" t="n">
-        <v>37.55779725345612</v>
+        <v>37.5577972534561</v>
       </c>
       <c r="J29" t="n">
         <v>0</v>
@@ -2947,7 +2947,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>80.76129627153098</v>
+        <v>98.0207103960927</v>
       </c>
       <c r="C31" t="n">
         <v>85.43555131278323</v>
@@ -2956,16 +2956,16 @@
         <v>66.80420323236775</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>64.62269286072457</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G31" t="n">
-        <v>85.11966459179395</v>
+        <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>70.99113916484791</v>
+        <v>10.61891853426902</v>
       </c>
       <c r="I31" t="n">
         <v>41.76076153638377</v>
@@ -3032,13 +3032,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D32" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E32" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F32" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G32" t="n">
         <v>325.0256365363284</v>
@@ -3047,7 +3047,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I32" t="n">
-        <v>31.45515450563002</v>
+        <v>35.0808831893513</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -3074,13 +3074,13 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>1.422481774376166</v>
+        <v>0</v>
       </c>
       <c r="S32" t="n">
-        <v>155.168912892709</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T32" t="n">
-        <v>127.0403265212223</v>
+        <v>212.7509921455486</v>
       </c>
       <c r="U32" t="n">
         <v>163.2426852985549</v>
@@ -3092,7 +3092,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X32" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y32" t="n">
         <v>298.3240261223829</v>
@@ -3184,28 +3184,28 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C34" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D34" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E34" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F34" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G34" t="n">
         <v>79.01702184396784</v>
       </c>
       <c r="H34" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702181</v>
       </c>
       <c r="I34" t="n">
-        <v>35.65811878855767</v>
+        <v>35.65811878855766</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3232,13 +3232,13 @@
         <v>0</v>
       </c>
       <c r="R34" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S34" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T34" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U34" t="n">
         <v>198.3472961875027</v>
@@ -3250,7 +3250,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X34" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y34" t="n">
         <v>130.6707408184241</v>
@@ -3269,13 +3269,13 @@
         <v>277.3589792373368</v>
       </c>
       <c r="D35" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E35" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F35" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G35" t="n">
         <v>325.0256365363284</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="S35" t="n">
-        <v>67.25500035903829</v>
+        <v>67.25500035903828</v>
       </c>
       <c r="T35" t="n">
         <v>124.8370796118779</v>
@@ -3329,7 +3329,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X35" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y35" t="n">
         <v>298.3240261223829</v>
@@ -3363,7 +3363,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I36" t="n">
-        <v>45.86296740838224</v>
+        <v>45.86296740838225</v>
       </c>
       <c r="J36" t="n">
         <v>0</v>
@@ -3390,7 +3390,7 @@
         <v>0</v>
       </c>
       <c r="R36" t="n">
-        <v>21.65304841868479</v>
+        <v>21.6530484186848</v>
       </c>
       <c r="S36" t="n">
         <v>148.1971745240615</v>
@@ -3421,22 +3421,22 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>91.9180676482666</v>
+        <v>91.91806764826659</v>
       </c>
       <c r="C37" t="n">
-        <v>79.33290856495714</v>
+        <v>79.33290856495712</v>
       </c>
       <c r="D37" t="n">
-        <v>60.70156048454166</v>
+        <v>60.70156048454164</v>
       </c>
       <c r="E37" t="n">
-        <v>58.52005011289847</v>
+        <v>58.52005011289846</v>
       </c>
       <c r="F37" t="n">
-        <v>57.50713548926055</v>
+        <v>57.50713548926053</v>
       </c>
       <c r="G37" t="n">
-        <v>79.01702184396785</v>
+        <v>79.01702184396784</v>
       </c>
       <c r="H37" t="n">
         <v>64.88849641702181</v>
@@ -3469,13 +3469,13 @@
         <v>0</v>
       </c>
       <c r="R37" t="n">
-        <v>41.71600179680051</v>
+        <v>41.71600179680048</v>
       </c>
       <c r="S37" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T37" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U37" t="n">
         <v>198.3472961875027</v>
@@ -3487,7 +3487,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X37" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y37" t="n">
         <v>130.6707408184241</v>
@@ -3551,7 +3551,7 @@
         <v>0</v>
       </c>
       <c r="S38" t="n">
-        <v>67.25500035903831</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T38" t="n">
         <v>124.8370796118779</v>
@@ -3673,7 +3673,7 @@
         <v>57.50713548926055</v>
       </c>
       <c r="G40" t="n">
-        <v>79.01702184396784</v>
+        <v>79.01702184396785</v>
       </c>
       <c r="H40" t="n">
         <v>64.88849641702183</v>
@@ -3706,7 +3706,7 @@
         <v>0</v>
       </c>
       <c r="R40" t="n">
-        <v>41.71600179680051</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S40" t="n">
         <v>117.628992519371</v>
@@ -3758,7 +3758,7 @@
         <v>227.3588859183475</v>
       </c>
       <c r="I41" t="n">
-        <v>31.45515450562999</v>
+        <v>31.45515450562998</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -3785,10 +3785,10 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>9.003997547551989e-13</v>
+        <v>0</v>
       </c>
       <c r="S41" t="n">
-        <v>67.25500035903828</v>
+        <v>67.25500035903826</v>
       </c>
       <c r="T41" t="n">
         <v>124.8370796118778</v>
@@ -3895,28 +3895,28 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>91.91806764826657</v>
+        <v>91.91806764826656</v>
       </c>
       <c r="C43" t="n">
-        <v>79.33290856495711</v>
+        <v>79.33290856495709</v>
       </c>
       <c r="D43" t="n">
-        <v>60.70156048454163</v>
+        <v>60.70156048454162</v>
       </c>
       <c r="E43" t="n">
-        <v>58.52005011289845</v>
+        <v>58.52005011289843</v>
       </c>
       <c r="F43" t="n">
-        <v>57.50713548926052</v>
+        <v>57.50713548926051</v>
       </c>
       <c r="G43" t="n">
-        <v>79.01702184396783</v>
+        <v>79.0170218439678</v>
       </c>
       <c r="H43" t="n">
-        <v>64.8884964170218</v>
+        <v>64.88849641702177</v>
       </c>
       <c r="I43" t="n">
-        <v>35.65811878855764</v>
+        <v>35.65811878855763</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3943,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="R43" t="n">
-        <v>41.71600179680048</v>
+        <v>41.71600179680047</v>
       </c>
       <c r="S43" t="n">
         <v>117.628992519371</v>
@@ -3977,16 +3977,16 @@
         <v>294.8199291298099</v>
       </c>
       <c r="C44" t="n">
-        <v>277.3589792373369</v>
+        <v>277.3589792373368</v>
       </c>
       <c r="D44" t="n">
-        <v>266.7691290870123</v>
+        <v>266.7691290870122</v>
       </c>
       <c r="E44" t="n">
         <v>294.0164575385911</v>
       </c>
       <c r="F44" t="n">
-        <v>318.9621332080408</v>
+        <v>318.9621332080407</v>
       </c>
       <c r="G44" t="n">
         <v>325.0256365363284</v>
@@ -4025,7 +4025,7 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>67.25500035903832</v>
+        <v>67.25500035903829</v>
       </c>
       <c r="T44" t="n">
         <v>124.8370796118779</v>
@@ -4040,7 +4040,7 @@
         <v>261.3270561837423</v>
       </c>
       <c r="X44" t="n">
-        <v>281.8171881447984</v>
+        <v>281.8171881447983</v>
       </c>
       <c r="Y44" t="n">
         <v>298.3240261223829</v>
@@ -4074,7 +4074,7 @@
         <v>100.0238351529859</v>
       </c>
       <c r="I45" t="n">
-        <v>45.86296740838225</v>
+        <v>45.86296740838227</v>
       </c>
       <c r="J45" t="n">
         <v>0</v>
@@ -4101,10 +4101,10 @@
         <v>0</v>
       </c>
       <c r="R45" t="n">
-        <v>21.6530484186848</v>
+        <v>21.65304841868485</v>
       </c>
       <c r="S45" t="n">
-        <v>148.1971745240615</v>
+        <v>148.1971745240616</v>
       </c>
       <c r="T45" t="n">
         <v>195.0682397085608</v>
@@ -4132,28 +4132,28 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>91.91806764826661</v>
+        <v>91.91806764826656</v>
       </c>
       <c r="C46" t="n">
-        <v>79.33290856495715</v>
+        <v>79.33290856495709</v>
       </c>
       <c r="D46" t="n">
-        <v>60.70156048454167</v>
+        <v>60.70156048454162</v>
       </c>
       <c r="E46" t="n">
-        <v>58.52005011289849</v>
+        <v>58.52005011289843</v>
       </c>
       <c r="F46" t="n">
-        <v>57.50713548926056</v>
+        <v>57.50713548926051</v>
       </c>
       <c r="G46" t="n">
-        <v>79.01702184396787</v>
+        <v>79.01702184396781</v>
       </c>
       <c r="H46" t="n">
-        <v>64.88849641702183</v>
+        <v>64.88849641702178</v>
       </c>
       <c r="I46" t="n">
-        <v>35.65811878855769</v>
+        <v>35.65811878855764</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,16 +4180,16 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>41.71600179680053</v>
+        <v>41.7160017968005</v>
       </c>
       <c r="S46" t="n">
         <v>117.628992519371</v>
       </c>
       <c r="T46" t="n">
-        <v>135.5023937947426</v>
+        <v>135.5023937947425</v>
       </c>
       <c r="U46" t="n">
-        <v>198.3472961875028</v>
+        <v>198.3472961875027</v>
       </c>
       <c r="V46" t="n">
         <v>164.2237307901573</v>
@@ -4198,7 +4198,7 @@
         <v>198.6090858029203</v>
       </c>
       <c r="X46" t="n">
-        <v>137.7957428553665</v>
+        <v>137.7957428553664</v>
       </c>
       <c r="Y46" t="n">
         <v>130.6707408184241</v>
@@ -4304,25 +4304,25 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>533.7059962668447</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="C2" t="n">
-        <v>533.7059962668447</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="D2" t="n">
-        <v>290.2572196227447</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="E2" t="n">
-        <v>290.2572196227447</v>
+        <v>266.3558523848238</v>
       </c>
       <c r="F2" t="n">
-        <v>46.80844297864461</v>
+        <v>259.4103516356203</v>
       </c>
       <c r="G2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="H2" t="n">
-        <v>31.35113235729608</v>
+        <v>243.9530410142718</v>
       </c>
       <c r="I2" t="n">
         <v>31.35113235729608</v>
@@ -4352,28 +4352,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="S2" t="n">
-        <v>953.9655401424092</v>
+        <v>802.5825927271064</v>
       </c>
       <c r="T2" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="U2" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="V2" t="n">
-        <v>953.9655401424092</v>
+        <v>577.2332497330343</v>
       </c>
       <c r="W2" t="n">
-        <v>777.1547729109448</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="X2" t="n">
-        <v>533.7059962668447</v>
+        <v>333.7844730889342</v>
       </c>
       <c r="Y2" t="n">
-        <v>533.7059962668447</v>
+        <v>333.7844730889342</v>
       </c>
     </row>
     <row r="3">
@@ -4383,28 +4383,28 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>467.0948956420016</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="C3" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D3" t="n">
-        <v>292.6418663608746</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G3" t="n">
-        <v>133.4044113554191</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I3" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J3" t="n">
         <v>19.28114311021272</v>
@@ -4413,13 +4413,13 @@
         <v>144.6387031680501</v>
       </c>
       <c r="L3" t="n">
-        <v>144.6387031680501</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M3" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N3" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O3" t="n">
         <v>712.019119383956</v>
@@ -4437,22 +4437,22 @@
         <v>964.0571555106362</v>
       </c>
       <c r="T3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="U3" t="n">
-        <v>964.0571555106362</v>
+        <v>761.8705608694022</v>
       </c>
       <c r="V3" t="n">
-        <v>964.0571555106362</v>
+        <v>526.7184526376595</v>
       </c>
       <c r="W3" t="n">
-        <v>720.6083788665362</v>
+        <v>283.2696759935595</v>
       </c>
       <c r="X3" t="n">
-        <v>512.7568786610034</v>
+        <v>75.41817578802664</v>
       </c>
       <c r="Y3" t="n">
-        <v>467.0948956420016</v>
+        <v>75.41817578802664</v>
       </c>
     </row>
     <row r="4">
@@ -4504,31 +4504,31 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="T4" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="U4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X4" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y4" t="n">
         <v>19.28114311021272</v>
@@ -4541,28 +4541,28 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="C5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="D5" t="n">
-        <v>525.1941863946997</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="E5" t="n">
-        <v>281.7454097505996</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="F5" t="n">
-        <v>274.7999090013961</v>
+        <v>713.6628781173328</v>
       </c>
       <c r="G5" t="n">
-        <v>31.35113235729608</v>
+        <v>475.3318284112885</v>
       </c>
       <c r="H5" t="n">
-        <v>31.35113235729608</v>
+        <v>231.8830517671884</v>
       </c>
       <c r="I5" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J5" t="n">
         <v>19.28114311021272</v>
@@ -4586,31 +4586,31 @@
         <v>964.0571555106362</v>
       </c>
       <c r="Q5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="R5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="S5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="T5" t="n">
-        <v>953.9655401424092</v>
+        <v>964.0571555106362</v>
       </c>
       <c r="U5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="V5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="W5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="X5" t="n">
-        <v>953.9655401424092</v>
+        <v>720.6083788665362</v>
       </c>
       <c r="Y5" t="n">
-        <v>710.516763498309</v>
+        <v>720.6083788665362</v>
       </c>
     </row>
     <row r="6">
@@ -4620,25 +4620,25 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="C6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="D6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="E6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="F6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="G6" t="n">
-        <v>110.334904905842</v>
+        <v>133.4044113554191</v>
       </c>
       <c r="H6" t="n">
-        <v>110.334904905842</v>
+        <v>20.03527576299844</v>
       </c>
       <c r="I6" t="n">
         <v>20.03527576299844</v>
@@ -4647,16 +4647,16 @@
         <v>19.28114311021272</v>
       </c>
       <c r="K6" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L6" t="n">
-        <v>19.28114311021272</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M6" t="n">
-        <v>234.810827406191</v>
+        <v>473.4149733950735</v>
       </c>
       <c r="N6" t="n">
-        <v>473.4149733950735</v>
+        <v>712.019119383956</v>
       </c>
       <c r="O6" t="n">
         <v>712.019119383956</v>
@@ -4668,28 +4668,28 @@
         <v>964.0571555106362</v>
       </c>
       <c r="R6" t="n">
-        <v>949.3145705917607</v>
+        <v>862.8876260635219</v>
       </c>
       <c r="S6" t="n">
-        <v>775.8972260424296</v>
+        <v>743.8076316805145</v>
       </c>
       <c r="T6" t="n">
-        <v>573.7106314011955</v>
+        <v>743.8076316805145</v>
       </c>
       <c r="U6" t="n">
-        <v>345.4870131375847</v>
+        <v>515.5840134169036</v>
       </c>
       <c r="V6" t="n">
-        <v>110.334904905842</v>
+        <v>515.5840134169036</v>
       </c>
       <c r="W6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="X6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
       <c r="Y6" t="n">
-        <v>110.334904905842</v>
+        <v>272.1352367728036</v>
       </c>
     </row>
     <row r="7">
@@ -4699,31 +4699,31 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J7" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K7" t="n">
         <v>19.28114311021272</v>
@@ -4759,16 +4759,16 @@
         <v>153.8134336004835</v>
       </c>
       <c r="V7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y7" t="n">
-        <v>153.8134336004835</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="8">
@@ -4778,28 +4778,28 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="C8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="D8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="E8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="F8" t="n">
-        <v>46.80844297864461</v>
+        <v>506.1786963984129</v>
       </c>
       <c r="G8" t="n">
-        <v>31.35113235729608</v>
+        <v>262.7299197543128</v>
       </c>
       <c r="H8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I8" t="n">
-        <v>31.35113235729608</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J8" t="n">
         <v>19.28114311021272</v>
@@ -4826,28 +4826,28 @@
         <v>953.9655401424092</v>
       </c>
       <c r="R8" t="n">
-        <v>802.5825927271064</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="S8" t="n">
-        <v>784.1002736601483</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="T8" t="n">
-        <v>784.1002736601483</v>
+        <v>953.9655401424092</v>
       </c>
       <c r="U8" t="n">
-        <v>540.6514970160482</v>
+        <v>756.5729737917163</v>
       </c>
       <c r="V8" t="n">
-        <v>297.2027203719481</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="W8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="X8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
       <c r="Y8" t="n">
-        <v>53.75394372784808</v>
+        <v>513.1241971476163</v>
       </c>
     </row>
     <row r="9">
@@ -4857,40 +4857,40 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E9" t="n">
-        <v>166.5698337361135</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I9" t="n">
-        <v>20.03527576299844</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J9" t="n">
         <v>19.28114311021272</v>
       </c>
       <c r="K9" t="n">
-        <v>19.28114311021272</v>
+        <v>144.6387031680501</v>
       </c>
       <c r="L9" t="n">
-        <v>249.2442489785619</v>
+        <v>374.6018090363993</v>
       </c>
       <c r="M9" t="n">
-        <v>486.8488635328713</v>
+        <v>613.2059550252818</v>
       </c>
       <c r="N9" t="n">
         <v>725.4530095217538</v>
@@ -4908,25 +4908,25 @@
         <v>964.0571555106362</v>
       </c>
       <c r="S9" t="n">
-        <v>964.0571555106362</v>
+        <v>790.6398109613051</v>
       </c>
       <c r="T9" t="n">
-        <v>964.0571555106362</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="U9" t="n">
-        <v>804.4081736174116</v>
+        <v>588.4532163200711</v>
       </c>
       <c r="V9" t="n">
-        <v>569.256065385669</v>
+        <v>353.3011080883284</v>
       </c>
       <c r="W9" t="n">
-        <v>325.807288741569</v>
+        <v>109.8523314442283</v>
       </c>
       <c r="X9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y9" t="n">
-        <v>325.807288741569</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="10">
@@ -4936,31 +4936,31 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="C10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="D10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="E10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="F10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="G10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="H10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="I10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="J10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="K10" t="n">
         <v>19.28114311021272</v>
@@ -4978,34 +4978,34 @@
         <v>153.8134336004835</v>
       </c>
       <c r="P10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="Q10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="R10" t="n">
-        <v>151.0645035650224</v>
+        <v>153.8134336004835</v>
       </c>
       <c r="S10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="T10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="U10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="V10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="W10" t="n">
-        <v>151.0645035650224</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="X10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
       <c r="Y10" t="n">
-        <v>41.77557929797318</v>
+        <v>19.28114311021272</v>
       </c>
     </row>
     <row r="11">
@@ -5015,34 +5015,34 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2209.282487989422</v>
+        <v>1847.309969784425</v>
       </c>
       <c r="C11" t="n">
-        <v>1860.946006833127</v>
+        <v>1498.973488628129</v>
       </c>
       <c r="D11" t="n">
-        <v>1523.306344010492</v>
+        <v>1225.475007620853</v>
       </c>
       <c r="E11" t="n">
-        <v>1158.144127196364</v>
+        <v>860.3127908067247</v>
       </c>
       <c r="F11" t="n">
-        <v>767.7842581908728</v>
+        <v>469.9529218012333</v>
       </c>
       <c r="G11" t="n">
-        <v>371.2996383487275</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H11" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I11" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J11" t="n">
-        <v>260.2054441404284</v>
+        <v>260.205444140428</v>
       </c>
       <c r="K11" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075375</v>
       </c>
       <c r="L11" t="n">
         <v>1210.096241442436</v>
@@ -5051,40 +5051,40 @@
         <v>1837.877529641655</v>
       </c>
       <c r="N11" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O11" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P11" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S11" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T11" t="n">
-        <v>3629.751930424086</v>
+        <v>3479.141141672293</v>
       </c>
       <c r="U11" t="n">
-        <v>3629.751930424086</v>
+        <v>3246.073644292544</v>
       </c>
       <c r="V11" t="n">
-        <v>3629.751930424086</v>
+        <v>2935.63679273309</v>
       </c>
       <c r="W11" t="n">
-        <v>3297.609310938088</v>
+        <v>2935.63679273309</v>
       </c>
       <c r="X11" t="n">
-        <v>2944.769588461124</v>
+        <v>2582.797070256126</v>
       </c>
       <c r="Y11" t="n">
-        <v>2575.256292269428</v>
+        <v>2213.28377406443</v>
       </c>
     </row>
     <row r="12">
@@ -5115,22 +5115,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I12" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J12" t="n">
-        <v>190.9942848817979</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="K12" t="n">
-        <v>518.4857520746643</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L12" t="n">
-        <v>1020.242840959544</v>
+        <v>902.7168580368341</v>
       </c>
       <c r="M12" t="n">
-        <v>1196.70090586306</v>
+        <v>1079.17492294035</v>
       </c>
       <c r="N12" t="n">
-        <v>1459.960876960276</v>
+        <v>1749.260903270368</v>
       </c>
       <c r="O12" t="n">
         <v>2006.542958788865</v>
@@ -5173,43 +5173,43 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>433.4170151758019</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="C13" t="n">
-        <v>433.4170151758019</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="D13" t="n">
-        <v>303.9264115475823</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="E13" t="n">
-        <v>303.9264115475823</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="F13" t="n">
-        <v>177.662499833788</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="G13" t="n">
-        <v>177.662499833788</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H13" t="n">
-        <v>177.662499833788</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I13" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J13" t="n">
-        <v>75.45401965814362</v>
+        <v>75.45401965814358</v>
       </c>
       <c r="K13" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L13" t="n">
         <v>399.1026573432038</v>
       </c>
       <c r="M13" t="n">
-        <v>623.0114736459858</v>
+        <v>623.0114736459857</v>
       </c>
       <c r="N13" t="n">
-        <v>847.5115364327554</v>
+        <v>847.5115364327552</v>
       </c>
       <c r="O13" t="n">
         <v>1040.400604995802</v>
@@ -5221,28 +5221,28 @@
         <v>1207.639325881399</v>
       </c>
       <c r="R13" t="n">
-        <v>1207.639325881399</v>
+        <v>1097.326054260998</v>
       </c>
       <c r="S13" t="n">
-        <v>1207.639325881399</v>
+        <v>910.3329940319411</v>
       </c>
       <c r="T13" t="n">
-        <v>1002.592324970148</v>
+        <v>705.2859931206903</v>
       </c>
       <c r="U13" t="n">
-        <v>1001.969502695241</v>
+        <v>436.7592928228128</v>
       </c>
       <c r="V13" t="n">
-        <v>1001.969502695241</v>
+        <v>202.7008404010421</v>
       </c>
       <c r="W13" t="n">
-        <v>1001.969502695241</v>
+        <v>202.7008404010421</v>
       </c>
       <c r="X13" t="n">
-        <v>794.6059875813396</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="Y13" t="n">
-        <v>594.4394442219256</v>
+        <v>73.46830195908775</v>
       </c>
     </row>
     <row r="14">
@@ -5252,76 +5252,76 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>1905.473686201437</v>
+        <v>2209.282487989422</v>
       </c>
       <c r="C14" t="n">
-        <v>1905.473686201437</v>
+        <v>1860.946006833127</v>
       </c>
       <c r="D14" t="n">
-        <v>1567.834023378802</v>
+        <v>1523.306344010493</v>
       </c>
       <c r="E14" t="n">
-        <v>1202.671806564674</v>
+        <v>1158.144127196364</v>
       </c>
       <c r="F14" t="n">
-        <v>812.3119375591828</v>
+        <v>767.7842581908729</v>
       </c>
       <c r="G14" t="n">
-        <v>415.8273177170371</v>
+        <v>371.2996383487274</v>
       </c>
       <c r="H14" t="n">
-        <v>117.9959813273971</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I14" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J14" t="n">
-        <v>260.2054441404289</v>
+        <v>260.2054441404284</v>
       </c>
       <c r="K14" t="n">
-        <v>660.8208179075386</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L14" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442436</v>
       </c>
       <c r="M14" t="n">
-        <v>1837.877529641656</v>
+        <v>1837.877529641655</v>
       </c>
       <c r="N14" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863254</v>
       </c>
       <c r="O14" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P14" t="n">
         <v>3430.660101634156</v>
       </c>
       <c r="Q14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R14" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S14" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="T14" t="n">
-        <v>3537.304858089304</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="U14" t="n">
-        <v>3304.237360709556</v>
+        <v>3440.34760057464</v>
       </c>
       <c r="V14" t="n">
-        <v>2993.800509150102</v>
+        <v>3440.34760057464</v>
       </c>
       <c r="W14" t="n">
-        <v>2993.800509150102</v>
+        <v>3297.609310938088</v>
       </c>
       <c r="X14" t="n">
-        <v>2640.960786673138</v>
+        <v>2944.769588461124</v>
       </c>
       <c r="Y14" t="n">
-        <v>2271.447490481442</v>
+        <v>2575.256292269428</v>
       </c>
     </row>
     <row r="15">
@@ -5352,25 +5352,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I15" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J15" t="n">
-        <v>73.46830195908778</v>
+        <v>190.9942848817978</v>
       </c>
       <c r="K15" t="n">
-        <v>400.9597691519543</v>
+        <v>518.4857520746642</v>
       </c>
       <c r="L15" t="n">
-        <v>902.7168580368342</v>
+        <v>928.6949726802803</v>
       </c>
       <c r="M15" t="n">
-        <v>1079.17492294035</v>
+        <v>1105.153037583796</v>
       </c>
       <c r="N15" t="n">
-        <v>1459.960876960276</v>
+        <v>1775.239017913814</v>
       </c>
       <c r="O15" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P15" t="n">
         <v>2428.220199306442</v>
@@ -5410,34 +5410,34 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>476.1079982507562</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="C16" t="n">
-        <v>476.1079982507562</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="D16" t="n">
-        <v>476.1079982507562</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="E16" t="n">
-        <v>476.1079982507562</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="F16" t="n">
-        <v>349.8440865369619</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="G16" t="n">
-        <v>201.8530168891198</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="H16" t="n">
-        <v>177.6624998337883</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I16" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J16" t="n">
-        <v>75.45401965814368</v>
+        <v>75.45401965814358</v>
       </c>
       <c r="K16" t="n">
-        <v>195.5491741164736</v>
+        <v>195.5491741164735</v>
       </c>
       <c r="L16" t="n">
         <v>399.1026573432038</v>
@@ -5446,40 +5446,40 @@
         <v>623.0114736459857</v>
       </c>
       <c r="N16" t="n">
-        <v>847.5115364327552</v>
+        <v>847.5115364327553</v>
       </c>
       <c r="O16" t="n">
         <v>1040.400604995802</v>
       </c>
       <c r="P16" t="n">
-        <v>1184.847502163548</v>
+        <v>1184.847502163549</v>
       </c>
       <c r="Q16" t="n">
         <v>1207.639325881399</v>
       </c>
       <c r="R16" t="n">
-        <v>1097.326054260998</v>
+        <v>1207.639325881399</v>
       </c>
       <c r="S16" t="n">
-        <v>910.332994031941</v>
+        <v>1020.646265652342</v>
       </c>
       <c r="T16" t="n">
-        <v>910.332994031941</v>
+        <v>844.8445889315803</v>
       </c>
       <c r="U16" t="n">
-        <v>910.332994031941</v>
+        <v>576.3178886337031</v>
       </c>
       <c r="V16" t="n">
-        <v>676.2745416101702</v>
+        <v>342.2594362119323</v>
       </c>
       <c r="W16" t="n">
-        <v>676.2745416101702</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="X16" t="n">
-        <v>676.2745416101702</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="Y16" t="n">
-        <v>476.1079982507562</v>
+        <v>73.46830195908775</v>
       </c>
     </row>
     <row r="17">
@@ -5489,76 +5489,76 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C17" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D17" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E17" t="n">
         <v>1010.046464746615</v>
       </c>
       <c r="F17" t="n">
-        <v>681.6982062053353</v>
+        <v>681.6982062053348</v>
       </c>
       <c r="G17" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274007</v>
       </c>
       <c r="H17" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019729</v>
       </c>
       <c r="I17" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J17" t="n">
-        <v>260.2054441404292</v>
+        <v>260.2054441404275</v>
       </c>
       <c r="K17" t="n">
-        <v>660.8208179075389</v>
+        <v>660.8208179075373</v>
       </c>
       <c r="L17" t="n">
-        <v>1210.096241442437</v>
+        <v>1210.096241442435</v>
       </c>
       <c r="M17" t="n">
-        <v>1837.877529641656</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N17" t="n">
-        <v>2461.184977863255</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O17" t="n">
-        <v>3004.568888469955</v>
+        <v>3004.568888469954</v>
       </c>
       <c r="P17" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R17" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S17" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T17" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U17" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V17" t="n">
-        <v>3047.572994724855</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W17" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X17" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y17" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="18">
@@ -5589,28 +5589,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I18" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J18" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K18" t="n">
-        <v>518.4857520746643</v>
+        <v>518.4857520746642</v>
       </c>
       <c r="L18" t="n">
         <v>1020.242840959544</v>
       </c>
       <c r="M18" t="n">
-        <v>1264.423847230376</v>
+        <v>1196.70090586306</v>
       </c>
       <c r="N18" t="n">
-        <v>1459.960876960276</v>
+        <v>1866.786886193078</v>
       </c>
       <c r="O18" t="n">
-        <v>2006.542958788865</v>
+        <v>2413.368968021667</v>
       </c>
       <c r="P18" t="n">
-        <v>2428.220199306442</v>
+        <v>2636.196714164933</v>
       </c>
       <c r="Q18" t="n">
         <v>2657.402498082636</v>
@@ -5647,76 +5647,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>427.1160997754283</v>
+        <v>450.208959699004</v>
       </c>
       <c r="C19" t="n">
-        <v>340.8175630958492</v>
+        <v>363.910423019425</v>
       </c>
       <c r="D19" t="n">
-        <v>273.3385699318412</v>
+        <v>296.4314298554173</v>
       </c>
       <c r="E19" t="n">
-        <v>273.3385699318412</v>
+        <v>231.1559825213521</v>
       </c>
       <c r="F19" t="n">
-        <v>273.3385699318412</v>
+        <v>231.1559825213521</v>
       </c>
       <c r="G19" t="n">
-        <v>187.3591107482109</v>
+        <v>145.176523337722</v>
       </c>
       <c r="H19" t="n">
-        <v>115.6508893695765</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I19" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J19" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K19" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484216</v>
       </c>
       <c r="L19" t="n">
-        <v>581.4353955911251</v>
+        <v>581.4353955911258</v>
       </c>
       <c r="M19" t="n">
-        <v>866.121791309881</v>
+        <v>866.1217913098817</v>
       </c>
       <c r="N19" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O19" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P19" t="n">
-        <v>1610.290558075366</v>
+        <v>1610.290558075367</v>
       </c>
       <c r="Q19" t="n">
-        <v>1693.85996120919</v>
+        <v>1693.859961209191</v>
       </c>
       <c r="R19" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053003</v>
       </c>
       <c r="S19" t="n">
-        <v>1520.576850288156</v>
+        <v>1561.103461852703</v>
       </c>
       <c r="T19" t="n">
-        <v>1377.541459841116</v>
+        <v>1418.068071405664</v>
       </c>
       <c r="U19" t="n">
-        <v>1171.026370007451</v>
+        <v>1211.552981571999</v>
       </c>
       <c r="V19" t="n">
-        <v>1016.413279690865</v>
+        <v>1039.50613961444</v>
       </c>
       <c r="W19" t="n">
-        <v>809.6337559022321</v>
+        <v>832.7266158258071</v>
       </c>
       <c r="X19" t="n">
-        <v>664.2818512525425</v>
+        <v>687.3747111761179</v>
       </c>
       <c r="Y19" t="n">
-        <v>526.1269183573402</v>
+        <v>549.2197782809158</v>
       </c>
     </row>
     <row r="20">
@@ -5726,28 +5726,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147036</v>
       </c>
       <c r="C20" t="n">
-        <v>1588.825123454954</v>
+        <v>1588.825123454952</v>
       </c>
       <c r="D20" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E20" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746613</v>
       </c>
       <c r="F20" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053337</v>
       </c>
       <c r="G20" t="n">
-        <v>347.2251968274009</v>
+        <v>347.2251968273999</v>
       </c>
       <c r="H20" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019727</v>
       </c>
       <c r="I20" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J20" t="n">
         <v>260.2054441404284</v>
@@ -5768,34 +5768,34 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P20" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R20" t="n">
-        <v>3673.415097954389</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S20" t="n">
-        <v>3599.316468553516</v>
+        <v>3599.316468553514</v>
       </c>
       <c r="T20" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735631</v>
       </c>
       <c r="U20" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820095</v>
       </c>
       <c r="V20" t="n">
-        <v>3047.572994724854</v>
+        <v>3047.572994724852</v>
       </c>
       <c r="W20" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703066</v>
       </c>
       <c r="X20" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y20" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.11218796283</v>
       </c>
     </row>
     <row r="21">
@@ -5826,25 +5826,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I21" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J21" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="K21" t="n">
-        <v>256.6651674322115</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L21" t="n">
-        <v>391.2903144666668</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M21" t="n">
-        <v>1028.796392482683</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N21" t="n">
-        <v>1698.882372812701</v>
+        <v>1473.939381140297</v>
       </c>
       <c r="O21" t="n">
-        <v>2245.46445464129</v>
+        <v>2006.542958788865</v>
       </c>
       <c r="P21" t="n">
         <v>2428.220199306442</v>
@@ -5884,76 +5884,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>556.6438483590762</v>
+        <v>409.6823481344562</v>
       </c>
       <c r="C22" t="n">
-        <v>470.345311679497</v>
+        <v>323.3838114548772</v>
       </c>
       <c r="D22" t="n">
-        <v>402.8663185154891</v>
+        <v>255.9048182908694</v>
       </c>
       <c r="E22" t="n">
-        <v>337.5908711814237</v>
+        <v>190.6293709568042</v>
       </c>
       <c r="F22" t="n">
-        <v>273.3385699318412</v>
+        <v>145.176523337722</v>
       </c>
       <c r="G22" t="n">
-        <v>187.3591107482108</v>
+        <v>145.176523337722</v>
       </c>
       <c r="H22" t="n">
-        <v>115.6508893695765</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I22" t="n">
-        <v>73.46830195908778</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J22" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K22" t="n">
-        <v>317.1043329484213</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L22" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M22" t="n">
-        <v>866.1217913098811</v>
+        <v>866.1217913098814</v>
       </c>
       <c r="N22" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O22" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P22" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q22" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R22" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S22" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T22" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U22" t="n">
-        <v>1171.02637000745</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V22" t="n">
-        <v>998.9795280498913</v>
+        <v>998.9795280498928</v>
       </c>
       <c r="W22" t="n">
-        <v>939.1615044858792</v>
+        <v>792.20000426126</v>
       </c>
       <c r="X22" t="n">
-        <v>793.8095998361896</v>
+        <v>646.8480996115705</v>
       </c>
       <c r="Y22" t="n">
-        <v>655.6546669409881</v>
+        <v>508.6931667163681</v>
       </c>
     </row>
     <row r="23">
@@ -5963,34 +5963,34 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1875.149994147038</v>
+        <v>1875.149994147037</v>
       </c>
       <c r="C23" t="n">
-        <v>1588.825123454955</v>
+        <v>1588.825123454953</v>
       </c>
       <c r="D23" t="n">
-        <v>1313.197071096532</v>
+        <v>1313.197071096531</v>
       </c>
       <c r="E23" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F23" t="n">
-        <v>681.6982062053357</v>
+        <v>681.6982062053347</v>
       </c>
       <c r="G23" t="n">
-        <v>347.2251968274008</v>
+        <v>347.2251968274009</v>
       </c>
       <c r="H23" t="n">
-        <v>111.4054709019728</v>
+        <v>111.4054709019729</v>
       </c>
       <c r="I23" t="n">
-        <v>73.4683019590878</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J23" t="n">
         <v>260.2054441404284</v>
       </c>
       <c r="K23" t="n">
-        <v>660.8208179075381</v>
+        <v>660.820817907538</v>
       </c>
       <c r="L23" t="n">
         <v>1210.096241442436</v>
@@ -6002,37 +6002,37 @@
         <v>2461.184977863255</v>
       </c>
       <c r="O23" t="n">
-        <v>3004.568888469956</v>
+        <v>3004.568888469955</v>
       </c>
       <c r="P23" t="n">
-        <v>3430.660101634157</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q23" t="n">
-        <v>3673.41509795439</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="R23" t="n">
-        <v>3673.41509795439</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S23" t="n">
-        <v>3599.316468553517</v>
+        <v>3599.316468553515</v>
       </c>
       <c r="T23" t="n">
-        <v>3467.054122735634</v>
+        <v>3467.054122735633</v>
       </c>
       <c r="U23" t="n">
-        <v>3295.998235820097</v>
+        <v>3295.998235820096</v>
       </c>
       <c r="V23" t="n">
-        <v>3047.572994724855</v>
+        <v>3047.572994724853</v>
       </c>
       <c r="W23" t="n">
-        <v>2777.441985703068</v>
+        <v>2777.441985703067</v>
       </c>
       <c r="X23" t="n">
-        <v>2486.613873690316</v>
+        <v>2486.613873690315</v>
       </c>
       <c r="Y23" t="n">
-        <v>2179.112187962832</v>
+        <v>2179.112187962831</v>
       </c>
     </row>
     <row r="24">
@@ -6051,10 +6051,10 @@
         <v>664.0543578015754</v>
       </c>
       <c r="E24" t="n">
-        <v>504.81690279612</v>
+        <v>504.8169027961198</v>
       </c>
       <c r="F24" t="n">
-        <v>358.2823448230049</v>
+        <v>358.2823448230048</v>
       </c>
       <c r="G24" t="n">
         <v>220.8287085867323</v>
@@ -6063,22 +6063,22 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I24" t="n">
-        <v>73.4683019590878</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J24" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K24" t="n">
-        <v>518.4857520746643</v>
+        <v>256.6651674322114</v>
       </c>
       <c r="L24" t="n">
-        <v>1020.242840959544</v>
+        <v>542.2925146982047</v>
       </c>
       <c r="M24" t="n">
-        <v>1196.70090586306</v>
+        <v>1179.798592714221</v>
       </c>
       <c r="N24" t="n">
-        <v>1459.960876960276</v>
+        <v>1849.884573044239</v>
       </c>
       <c r="O24" t="n">
         <v>2006.542958788865</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>427.1160997754283</v>
+        <v>409.6823481344559</v>
       </c>
       <c r="C25" t="n">
-        <v>340.8175630958492</v>
+        <v>323.3838114548769</v>
       </c>
       <c r="D25" t="n">
-        <v>273.3385699318412</v>
+        <v>255.904818290869</v>
       </c>
       <c r="E25" t="n">
-        <v>273.3385699318412</v>
+        <v>190.6293709568037</v>
       </c>
       <c r="F25" t="n">
-        <v>273.3385699318412</v>
+        <v>190.6293709568037</v>
       </c>
       <c r="G25" t="n">
-        <v>187.3591107482109</v>
+        <v>145.176523337722</v>
       </c>
       <c r="H25" t="n">
-        <v>115.6508893695765</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="I25" t="n">
-        <v>73.4683019590878</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J25" t="n">
-        <v>136.2315990741174</v>
+        <v>136.2315990741175</v>
       </c>
       <c r="K25" t="n">
-        <v>317.1043329484212</v>
+        <v>317.1043329484214</v>
       </c>
       <c r="L25" t="n">
-        <v>581.4353955911251</v>
+        <v>581.4353955911255</v>
       </c>
       <c r="M25" t="n">
-        <v>866.1217913098809</v>
+        <v>866.1217913098815</v>
       </c>
       <c r="N25" t="n">
-        <v>1151.399433512624</v>
+        <v>1151.399433512625</v>
       </c>
       <c r="O25" t="n">
         <v>1405.066081491645</v>
       </c>
       <c r="P25" t="n">
-        <v>1610.290558075365</v>
+        <v>1610.290558075366</v>
       </c>
       <c r="Q25" t="n">
         <v>1693.85996120919</v>
       </c>
       <c r="R25" t="n">
-        <v>1645.558300053001</v>
+        <v>1645.558300053002</v>
       </c>
       <c r="S25" t="n">
         <v>1520.576850288156</v>
       </c>
       <c r="T25" t="n">
-        <v>1377.541459841116</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U25" t="n">
-        <v>1171.026370007451</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V25" t="n">
-        <v>998.9795280498918</v>
+        <v>998.9795280498925</v>
       </c>
       <c r="W25" t="n">
-        <v>792.200004261259</v>
+        <v>792.2000042612597</v>
       </c>
       <c r="X25" t="n">
-        <v>664.2818512525425</v>
+        <v>646.8480996115702</v>
       </c>
       <c r="Y25" t="n">
-        <v>526.1269183573402</v>
+        <v>508.6931667163678</v>
       </c>
     </row>
     <row r="26">
@@ -6203,19 +6203,19 @@
         <v>1875.149994147037</v>
       </c>
       <c r="C26" t="n">
-        <v>1588.825123454953</v>
+        <v>1588.825123454954</v>
       </c>
       <c r="D26" t="n">
         <v>1313.197071096531</v>
       </c>
       <c r="E26" t="n">
-        <v>1010.046464746614</v>
+        <v>1010.046464746615</v>
       </c>
       <c r="F26" t="n">
-        <v>681.6982062053348</v>
+        <v>681.6982062053351</v>
       </c>
       <c r="G26" t="n">
-        <v>347.2251968274006</v>
+        <v>347.2251968274013</v>
       </c>
       <c r="H26" t="n">
         <v>111.4054709019727</v>
@@ -6254,7 +6254,7 @@
         <v>3599.316468553515</v>
       </c>
       <c r="T26" t="n">
-        <v>3467.054122735633</v>
+        <v>3467.054122735632</v>
       </c>
       <c r="U26" t="n">
         <v>3295.998235820096</v>
@@ -6303,25 +6303,25 @@
         <v>73.46830195908777</v>
       </c>
       <c r="J27" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="K27" t="n">
-        <v>518.4857520746643</v>
+        <v>139.1391845095014</v>
       </c>
       <c r="L27" t="n">
-        <v>1020.242840959544</v>
+        <v>640.8962733943813</v>
       </c>
       <c r="M27" t="n">
-        <v>1657.74891897556</v>
+        <v>1278.402351410397</v>
       </c>
       <c r="N27" t="n">
-        <v>2327.834899305578</v>
+        <v>1948.488331740415</v>
       </c>
       <c r="O27" t="n">
-        <v>2484.493285050205</v>
+        <v>2495.070413569004</v>
       </c>
       <c r="P27" t="n">
-        <v>2636.196714164933</v>
+        <v>2601.469513133043</v>
       </c>
       <c r="Q27" t="n">
         <v>2657.402498082636</v>
@@ -6358,46 +6358,46 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>427.1160997754278</v>
+        <v>409.6823481344564</v>
       </c>
       <c r="C28" t="n">
-        <v>340.8175630958488</v>
+        <v>323.3838114548774</v>
       </c>
       <c r="D28" t="n">
-        <v>273.3385699318409</v>
+        <v>255.9048182908696</v>
       </c>
       <c r="E28" t="n">
-        <v>273.3385699318409</v>
+        <v>190.6293709568044</v>
       </c>
       <c r="F28" t="n">
-        <v>273.3385699318409</v>
+        <v>190.6293709568044</v>
       </c>
       <c r="G28" t="n">
-        <v>187.3591107482107</v>
+        <v>104.6499117731742</v>
       </c>
       <c r="H28" t="n">
-        <v>115.6508893695764</v>
+        <v>104.6499117731742</v>
       </c>
       <c r="I28" t="n">
         <v>73.46830195908777</v>
       </c>
       <c r="J28" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K28" t="n">
-        <v>317.1043329484214</v>
+        <v>317.1043329484215</v>
       </c>
       <c r="L28" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911257</v>
       </c>
       <c r="M28" t="n">
-        <v>866.1217913098814</v>
+        <v>866.1217913098816</v>
       </c>
       <c r="N28" t="n">
         <v>1151.399433512625</v>
       </c>
       <c r="O28" t="n">
-        <v>1405.066081491645</v>
+        <v>1405.066081491646</v>
       </c>
       <c r="P28" t="n">
         <v>1610.290558075366</v>
@@ -6409,25 +6409,25 @@
         <v>1645.558300053002</v>
       </c>
       <c r="S28" t="n">
-        <v>1538.010601929127</v>
+        <v>1520.576850288156</v>
       </c>
       <c r="T28" t="n">
-        <v>1394.975211482088</v>
+        <v>1377.541459841117</v>
       </c>
       <c r="U28" t="n">
-        <v>1188.460121648423</v>
+        <v>1171.026370007452</v>
       </c>
       <c r="V28" t="n">
-        <v>1016.413279690864</v>
+        <v>998.9795280498929</v>
       </c>
       <c r="W28" t="n">
-        <v>809.6337559022313</v>
+        <v>792.2000042612602</v>
       </c>
       <c r="X28" t="n">
-        <v>664.2818512525419</v>
+        <v>646.8480996115707</v>
       </c>
       <c r="Y28" t="n">
-        <v>526.1269183573396</v>
+        <v>508.6931667163683</v>
       </c>
     </row>
     <row r="29">
@@ -6443,43 +6443,43 @@
         <v>1588.825123454953</v>
       </c>
       <c r="D29" t="n">
-        <v>1313.197071096531</v>
+        <v>1313.19707109653</v>
       </c>
       <c r="E29" t="n">
-        <v>1010.046464746615</v>
+        <v>1010.046464746614</v>
       </c>
       <c r="F29" t="n">
-        <v>681.6982062053351</v>
+        <v>681.6982062053344</v>
       </c>
       <c r="G29" t="n">
-        <v>347.2251968274013</v>
+        <v>347.2251968274005</v>
       </c>
       <c r="H29" t="n">
         <v>111.4054709019727</v>
       </c>
       <c r="I29" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J29" t="n">
-        <v>260.2054441404284</v>
+        <v>260.2054441404275</v>
       </c>
       <c r="K29" t="n">
-        <v>660.820817907538</v>
+        <v>660.8208179075373</v>
       </c>
       <c r="L29" t="n">
-        <v>1210.096241442436</v>
+        <v>1210.096241442435</v>
       </c>
       <c r="M29" t="n">
-        <v>1837.877529641655</v>
+        <v>1837.877529641654</v>
       </c>
       <c r="N29" t="n">
-        <v>2461.184977863254</v>
+        <v>2461.184977863253</v>
       </c>
       <c r="O29" t="n">
-        <v>3004.568888469954</v>
+        <v>3004.568888469953</v>
       </c>
       <c r="P29" t="n">
-        <v>3430.660101634156</v>
+        <v>3430.660101634155</v>
       </c>
       <c r="Q29" t="n">
         <v>3673.415097954388</v>
@@ -6503,7 +6503,7 @@
         <v>2777.441985703067</v>
       </c>
       <c r="X29" t="n">
-        <v>2486.613873690315</v>
+        <v>2486.613873690314</v>
       </c>
       <c r="Y29" t="n">
         <v>2179.112187962831</v>
@@ -6537,25 +6537,25 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I30" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J30" t="n">
-        <v>190.9942848817978</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="K30" t="n">
-        <v>518.4857520746643</v>
+        <v>400.9597691519542</v>
       </c>
       <c r="L30" t="n">
-        <v>1020.242840959544</v>
+        <v>535.5849161864096</v>
       </c>
       <c r="M30" t="n">
-        <v>1264.423847230376</v>
+        <v>1173.090994202425</v>
       </c>
       <c r="N30" t="n">
-        <v>1459.960876960276</v>
+        <v>1843.176974532443</v>
       </c>
       <c r="O30" t="n">
-        <v>2006.542958788865</v>
+        <v>2321.821099742403</v>
       </c>
       <c r="P30" t="n">
         <v>2428.220199306442</v>
@@ -6595,37 +6595,37 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>427.1160997754275</v>
+        <v>409.6823481344564</v>
       </c>
       <c r="C31" t="n">
-        <v>340.8175630958485</v>
+        <v>323.3838114548774</v>
       </c>
       <c r="D31" t="n">
-        <v>273.3385699318409</v>
+        <v>255.9048182908696</v>
       </c>
       <c r="E31" t="n">
-        <v>273.3385699318409</v>
+        <v>190.6293709568044</v>
       </c>
       <c r="F31" t="n">
-        <v>273.3385699318409</v>
+        <v>126.3770697072219</v>
       </c>
       <c r="G31" t="n">
-        <v>187.3591107482107</v>
+        <v>126.3770697072219</v>
       </c>
       <c r="H31" t="n">
         <v>115.6508893695764</v>
       </c>
       <c r="I31" t="n">
-        <v>73.46830195908777</v>
+        <v>73.46830195908775</v>
       </c>
       <c r="J31" t="n">
-        <v>136.2315990741175</v>
+        <v>136.2315990741176</v>
       </c>
       <c r="K31" t="n">
         <v>317.1043329484214</v>
       </c>
       <c r="L31" t="n">
-        <v>581.4353955911254</v>
+        <v>581.4353955911256</v>
       </c>
       <c r="M31" t="n">
         <v>866.1217913098812</v>
@@ -6664,7 +6664,7 @@
         <v>646.8480996115704</v>
       </c>
       <c r="Y31" t="n">
-        <v>508.6931667163679</v>
+        <v>508.6931667163683</v>
       </c>
     </row>
     <row r="32">
@@ -6674,28 +6674,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>1831.999994919984</v>
+        <v>1835.662347125763</v>
       </c>
       <c r="C32" t="n">
-        <v>1551.839409831765</v>
+        <v>1555.501762037544</v>
       </c>
       <c r="D32" t="n">
-        <v>1282.375643077207</v>
+        <v>1286.037995282986</v>
       </c>
       <c r="E32" t="n">
-        <v>985.3893223311552</v>
+        <v>989.0516745369341</v>
       </c>
       <c r="F32" t="n">
-        <v>663.2053493937403</v>
+        <v>666.8677015995193</v>
       </c>
       <c r="G32" t="n">
-        <v>334.8966256196712</v>
+        <v>338.5589778254502</v>
       </c>
       <c r="H32" t="n">
-        <v>105.241185298108</v>
+        <v>108.9035375038871</v>
       </c>
       <c r="I32" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J32" t="n">
         <v>260.2054441404284</v>
@@ -6716,34 +6716,34 @@
         <v>3004.568888469954</v>
       </c>
       <c r="P32" t="n">
-        <v>3430.660101634155</v>
+        <v>3430.660101634156</v>
       </c>
       <c r="Q32" t="n">
         <v>3673.415097954388</v>
       </c>
       <c r="R32" t="n">
-        <v>3671.97824767724</v>
+        <v>3673.415097954388</v>
       </c>
       <c r="S32" t="n">
-        <v>3515.241972028039</v>
+        <v>3605.48075415738</v>
       </c>
       <c r="T32" t="n">
-        <v>3386.91840988539</v>
+        <v>3390.580762091169</v>
       </c>
       <c r="U32" t="n">
-        <v>3222.026808573718</v>
+        <v>3225.689160779497</v>
       </c>
       <c r="V32" t="n">
-        <v>2979.765853082341</v>
+        <v>2983.428205288119</v>
       </c>
       <c r="W32" t="n">
-        <v>2715.799129664419</v>
+        <v>2719.461481870198</v>
       </c>
       <c r="X32" t="n">
-        <v>2431.135303255532</v>
+        <v>2434.797655461311</v>
       </c>
       <c r="Y32" t="n">
-        <v>2129.797903131913</v>
+        <v>2133.460255337692</v>
       </c>
     </row>
     <row r="33">
@@ -6774,28 +6774,28 @@
         <v>119.7945316645244</v>
       </c>
       <c r="I33" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J33" t="n">
         <v>190.9942848817978</v>
       </c>
       <c r="K33" t="n">
-        <v>518.4857520746642</v>
+        <v>256.6651674322115</v>
       </c>
       <c r="L33" t="n">
-        <v>1020.242840959544</v>
+        <v>758.4222563170914</v>
       </c>
       <c r="M33" t="n">
-        <v>1495.076733667758</v>
+        <v>934.8803212206074</v>
       </c>
       <c r="N33" t="n">
-        <v>2165.162713997776</v>
+        <v>1604.966301550625</v>
       </c>
       <c r="O33" t="n">
-        <v>2321.821099742403</v>
+        <v>2151.548383379214</v>
       </c>
       <c r="P33" t="n">
-        <v>2428.220199306442</v>
+        <v>2573.225623896791</v>
       </c>
       <c r="Q33" t="n">
         <v>2657.402498082636</v>
@@ -6832,40 +6832,40 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>513.4938491320223</v>
+        <v>513.493849132022</v>
       </c>
       <c r="C34" t="n">
-        <v>433.3595980563081</v>
+        <v>433.3595980563077</v>
       </c>
       <c r="D34" t="n">
-        <v>372.044890496165</v>
+        <v>372.0448904961646</v>
       </c>
       <c r="E34" t="n">
-        <v>312.9337287659645</v>
+        <v>312.9337287659641</v>
       </c>
       <c r="F34" t="n">
-        <v>254.8457131202467</v>
+        <v>254.8457131202464</v>
       </c>
       <c r="G34" t="n">
-        <v>175.0305395404811</v>
+        <v>175.030539540481</v>
       </c>
       <c r="H34" t="n">
         <v>109.4866037657117</v>
       </c>
       <c r="I34" t="n">
-        <v>73.46830195908775</v>
+        <v>73.46830195908777</v>
       </c>
       <c r="J34" t="n">
-        <v>142.2732153944654</v>
+        <v>142.2732153944653</v>
       </c>
       <c r="K34" t="n">
-        <v>329.1875655891171</v>
+        <v>329.187565589117</v>
       </c>
       <c r="L34" t="n">
-        <v>599.5602445521691</v>
+        <v>599.560244552169</v>
       </c>
       <c r="M34" t="n">
-        <v>890.2882565912728</v>
+        <v>890.2882565912727</v>
       </c>
       <c r="N34" t="n">
         <v>1181.607515114364</v>
@@ -6877,31 +6877,31 @@
         <v>1652.581872317801</v>
       </c>
       <c r="Q34" t="n">
-        <v>1742.192891771974</v>
+        <v>1742.192891771973</v>
       </c>
       <c r="R34" t="n">
-        <v>1700.05551621965</v>
+        <v>1700.055516219649</v>
       </c>
       <c r="S34" t="n">
         <v>1581.238352058669</v>
       </c>
       <c r="T34" t="n">
-        <v>1444.367247215495</v>
+        <v>1444.367247215494</v>
       </c>
       <c r="U34" t="n">
         <v>1244.016442985694</v>
       </c>
       <c r="V34" t="n">
-        <v>1078.133886632</v>
+        <v>1078.133886631999</v>
       </c>
       <c r="W34" t="n">
-        <v>877.5186484472317</v>
+        <v>877.5186484472314</v>
       </c>
       <c r="X34" t="n">
-        <v>738.3310294014069</v>
+        <v>738.3310294014066</v>
       </c>
       <c r="Y34" t="n">
-        <v>606.3403821100694</v>
+        <v>606.3403821100691</v>
       </c>
     </row>
     <row r="35">
@@ -6923,55 +6923,55 @@
         <v>983.5022961258901</v>
       </c>
       <c r="F35" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G35" t="n">
-        <v>333.0095994144067</v>
+        <v>333.0095994144062</v>
       </c>
       <c r="H35" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I35" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J35" t="n">
         <v>258.3184179351637</v>
       </c>
       <c r="K35" t="n">
-        <v>658.9337917022733</v>
+        <v>566.4695076443015</v>
       </c>
       <c r="L35" t="n">
-        <v>1208.209215237172</v>
+        <v>1115.7449311792</v>
       </c>
       <c r="M35" t="n">
-        <v>1835.990503436391</v>
+        <v>1743.526219378418</v>
       </c>
       <c r="N35" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O35" t="n">
-        <v>2910.217578206719</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P35" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R35" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S35" t="n">
-        <v>3511.129443894143</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T35" t="n">
-        <v>3385.031383680125</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U35" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V35" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W35" t="n">
         <v>2713.912103459154</v>
@@ -7011,28 +7011,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I36" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J36" t="n">
-        <v>189.1072586765331</v>
+        <v>189.107258676533</v>
       </c>
       <c r="K36" t="n">
-        <v>254.7781412269468</v>
+        <v>254.7781412269467</v>
       </c>
       <c r="L36" t="n">
-        <v>756.5352301118268</v>
+        <v>389.4032882614021</v>
       </c>
       <c r="M36" t="n">
-        <v>1394.041308127843</v>
+        <v>787.9878704249938</v>
       </c>
       <c r="N36" t="n">
-        <v>1589.578337857743</v>
+        <v>1458.073850755012</v>
       </c>
       <c r="O36" t="n">
-        <v>2136.160419686332</v>
+        <v>2004.655932583601</v>
       </c>
       <c r="P36" t="n">
-        <v>2557.837660203909</v>
+        <v>2426.333173101178</v>
       </c>
       <c r="Q36" t="n">
         <v>2655.515471877372</v>
@@ -7069,52 +7069,52 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>511.6068229267576</v>
+        <v>511.6068229267574</v>
       </c>
       <c r="C37" t="n">
-        <v>431.4725718510433</v>
+        <v>431.4725718510431</v>
       </c>
       <c r="D37" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E37" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606996</v>
       </c>
       <c r="F37" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149819</v>
       </c>
       <c r="G37" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H37" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I37" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J37" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K37" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838526</v>
       </c>
       <c r="L37" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469046</v>
       </c>
       <c r="M37" t="n">
-        <v>888.4012303860081</v>
+        <v>888.4012303860084</v>
       </c>
       <c r="N37" t="n">
-        <v>1179.720488909099</v>
+        <v>1179.7204889091</v>
       </c>
       <c r="O37" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P37" t="n">
-        <v>1650.694846112536</v>
+        <v>1650.694846112537</v>
       </c>
       <c r="Q37" t="n">
-        <v>1740.305865566708</v>
+        <v>1740.305865566709</v>
       </c>
       <c r="R37" t="n">
         <v>1698.168490014385</v>
@@ -7132,13 +7132,13 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W37" t="n">
-        <v>875.631622241967</v>
+        <v>875.6316222419666</v>
       </c>
       <c r="X37" t="n">
-        <v>736.4440031961421</v>
+        <v>736.4440031961419</v>
       </c>
       <c r="Y37" t="n">
-        <v>604.4533559048047</v>
+        <v>604.4533559048045</v>
       </c>
     </row>
     <row r="38">
@@ -7181,13 +7181,13 @@
         <v>1208.209215237171</v>
       </c>
       <c r="M38" t="n">
-        <v>1743.526219378419</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N38" t="n">
-        <v>2366.833667600018</v>
+        <v>2459.297951657989</v>
       </c>
       <c r="O38" t="n">
-        <v>2910.217578206718</v>
+        <v>3002.68186226469</v>
       </c>
       <c r="P38" t="n">
         <v>3336.30879137092</v>
@@ -7205,16 +7205,16 @@
         <v>3385.031383680126</v>
       </c>
       <c r="U38" t="n">
-        <v>3220.139782368455</v>
+        <v>3220.139782368454</v>
       </c>
       <c r="V38" t="n">
-        <v>2977.878826877077</v>
+        <v>2977.878826877076</v>
       </c>
       <c r="W38" t="n">
         <v>2713.912103459155</v>
       </c>
       <c r="X38" t="n">
-        <v>2429.248277050268</v>
+        <v>2429.248277050267</v>
       </c>
       <c r="Y38" t="n">
         <v>2127.910876926649</v>
@@ -7251,25 +7251,25 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J39" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382305</v>
       </c>
       <c r="K39" t="n">
-        <v>516.5987258693996</v>
+        <v>137.2521583042367</v>
       </c>
       <c r="L39" t="n">
-        <v>1018.355814754279</v>
+        <v>639.0092471891166</v>
       </c>
       <c r="M39" t="n">
-        <v>1262.536821025112</v>
+        <v>1276.515325205133</v>
       </c>
       <c r="N39" t="n">
-        <v>1458.073850755012</v>
+        <v>1946.60130553515</v>
       </c>
       <c r="O39" t="n">
-        <v>2004.655932583601</v>
+        <v>2493.183387363739</v>
       </c>
       <c r="P39" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q39" t="n">
         <v>2655.515471877372</v>
@@ -7330,13 +7330,13 @@
         <v>71.58127575382305</v>
       </c>
       <c r="J40" t="n">
-        <v>140.3861891892007</v>
+        <v>140.3861891892008</v>
       </c>
       <c r="K40" t="n">
-        <v>327.3005393838524</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L40" t="n">
-        <v>597.6732183469044</v>
+        <v>597.6732183469045</v>
       </c>
       <c r="M40" t="n">
         <v>888.4012303860081</v>
@@ -7385,28 +7385,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1830.112968714719</v>
+        <v>1830.112968714718</v>
       </c>
       <c r="C41" t="n">
-        <v>1549.9523836265</v>
+        <v>1549.952383626499</v>
       </c>
       <c r="D41" t="n">
-        <v>1280.488616871942</v>
+        <v>1280.488616871941</v>
       </c>
       <c r="E41" t="n">
-        <v>983.5022961258903</v>
+        <v>983.5022961258894</v>
       </c>
       <c r="F41" t="n">
-        <v>661.3183231884755</v>
+        <v>661.3183231884746</v>
       </c>
       <c r="G41" t="n">
-        <v>333.0095994144064</v>
+        <v>333.0095994144059</v>
       </c>
       <c r="H41" t="n">
-        <v>103.3541590928433</v>
+        <v>103.3541590928432</v>
       </c>
       <c r="I41" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J41" t="n">
         <v>258.3184179351637</v>
@@ -7421,40 +7421,40 @@
         <v>1835.99050343639</v>
       </c>
       <c r="N41" t="n">
-        <v>2459.297951657989</v>
+        <v>2366.833667600017</v>
       </c>
       <c r="O41" t="n">
-        <v>3002.68186226469</v>
+        <v>2910.217578206717</v>
       </c>
       <c r="P41" t="n">
-        <v>3428.773075428891</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q41" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="R41" t="n">
-        <v>3579.063787691152</v>
+        <v>3579.063787691151</v>
       </c>
       <c r="S41" t="n">
-        <v>3511.129443894144</v>
+        <v>3511.129443894142</v>
       </c>
       <c r="T41" t="n">
-        <v>3385.031383680126</v>
+        <v>3385.031383680124</v>
       </c>
       <c r="U41" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V41" t="n">
-        <v>2977.878826877076</v>
+        <v>2977.878826877075</v>
       </c>
       <c r="W41" t="n">
         <v>2713.912103459154</v>
       </c>
       <c r="X41" t="n">
-        <v>2429.248277050267</v>
+        <v>2429.248277050266</v>
       </c>
       <c r="Y41" t="n">
-        <v>2127.910876926648</v>
+        <v>2127.910876926647</v>
       </c>
     </row>
     <row r="42">
@@ -7485,28 +7485,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I42" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J42" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="K42" t="n">
-        <v>516.5987258693996</v>
+        <v>137.2521583042367</v>
       </c>
       <c r="L42" t="n">
-        <v>1018.355814754279</v>
+        <v>639.0092471891166</v>
       </c>
       <c r="M42" t="n">
-        <v>1262.536821025112</v>
+        <v>995.9643852834845</v>
       </c>
       <c r="N42" t="n">
-        <v>1458.073850755012</v>
+        <v>1666.050365613502</v>
       </c>
       <c r="O42" t="n">
-        <v>2004.655932583601</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P42" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q42" t="n">
         <v>2655.515471877372</v>
@@ -7543,49 +7543,49 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>511.6068229267575</v>
+        <v>511.6068229267572</v>
       </c>
       <c r="C43" t="n">
-        <v>431.4725718510433</v>
+        <v>431.472571851043</v>
       </c>
       <c r="D43" t="n">
-        <v>370.1578642909002</v>
+        <v>370.1578642908999</v>
       </c>
       <c r="E43" t="n">
-        <v>311.0467025606997</v>
+        <v>311.0467025606995</v>
       </c>
       <c r="F43" t="n">
-        <v>252.958686914982</v>
+        <v>252.9586869149818</v>
       </c>
       <c r="G43" t="n">
-        <v>173.1435133352165</v>
+        <v>173.1435133352164</v>
       </c>
       <c r="H43" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I43" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J43" t="n">
         <v>140.3861891892007</v>
       </c>
       <c r="K43" t="n">
-        <v>327.3005393838531</v>
+        <v>327.3005393838525</v>
       </c>
       <c r="L43" t="n">
-        <v>597.6732183469048</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M43" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N43" t="n">
-        <v>1179.7204889091</v>
+        <v>1179.720488909099</v>
       </c>
       <c r="O43" t="n">
         <v>1439.428753208468</v>
       </c>
       <c r="P43" t="n">
-        <v>1650.694846112537</v>
+        <v>1650.694846112536</v>
       </c>
       <c r="Q43" t="n">
         <v>1740.305865566708</v>
@@ -7603,16 +7603,16 @@
         <v>1242.129416780429</v>
       </c>
       <c r="V43" t="n">
-        <v>1076.246860426735</v>
+        <v>1076.246860426734</v>
       </c>
       <c r="W43" t="n">
-        <v>875.6316222419666</v>
+        <v>875.6316222419664</v>
       </c>
       <c r="X43" t="n">
-        <v>736.4440031961419</v>
+        <v>736.4440031961417</v>
       </c>
       <c r="Y43" t="n">
-        <v>604.4533559048045</v>
+        <v>604.4533559048043</v>
       </c>
     </row>
     <row r="44">
@@ -7625,16 +7625,16 @@
         <v>1830.112968714719</v>
       </c>
       <c r="C44" t="n">
-        <v>1549.952383626499</v>
+        <v>1549.9523836265</v>
       </c>
       <c r="D44" t="n">
         <v>1280.488616871942</v>
       </c>
       <c r="E44" t="n">
-        <v>983.5022961258899</v>
+        <v>983.5022961258901</v>
       </c>
       <c r="F44" t="n">
-        <v>661.318323188475</v>
+        <v>661.3183231884752</v>
       </c>
       <c r="G44" t="n">
         <v>333.0095994144062</v>
@@ -7643,43 +7643,43 @@
         <v>103.3541590928433</v>
       </c>
       <c r="I44" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J44" t="n">
-        <v>165.8541338771928</v>
+        <v>258.3184179351636</v>
       </c>
       <c r="K44" t="n">
-        <v>566.4695076443024</v>
+        <v>658.9337917022731</v>
       </c>
       <c r="L44" t="n">
-        <v>1115.7449311792</v>
+        <v>1208.209215237171</v>
       </c>
       <c r="M44" t="n">
-        <v>1743.526219378419</v>
+        <v>1835.99050343639</v>
       </c>
       <c r="N44" t="n">
-        <v>2366.833667600019</v>
+        <v>2366.833667600018</v>
       </c>
       <c r="O44" t="n">
-        <v>2910.217578206719</v>
+        <v>2910.217578206718</v>
       </c>
       <c r="P44" t="n">
-        <v>3336.30879137092</v>
+        <v>3336.308791370919</v>
       </c>
       <c r="Q44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="R44" t="n">
-        <v>3579.063787691153</v>
+        <v>3579.063787691152</v>
       </c>
       <c r="S44" t="n">
-        <v>3511.129443894145</v>
+        <v>3511.129443894144</v>
       </c>
       <c r="T44" t="n">
-        <v>3385.031383680127</v>
+        <v>3385.031383680126</v>
       </c>
       <c r="U44" t="n">
-        <v>3220.139782368454</v>
+        <v>3220.139782368453</v>
       </c>
       <c r="V44" t="n">
         <v>2977.878826877075</v>
@@ -7722,28 +7722,28 @@
         <v>117.9075054592597</v>
       </c>
       <c r="I45" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J45" t="n">
-        <v>189.1072586765331</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="K45" t="n">
-        <v>516.5987258693996</v>
+        <v>137.2521583042366</v>
       </c>
       <c r="L45" t="n">
-        <v>1018.355814754279</v>
+        <v>639.0092471891163</v>
       </c>
       <c r="M45" t="n">
-        <v>1194.813879657795</v>
+        <v>995.9643852834846</v>
       </c>
       <c r="N45" t="n">
-        <v>1458.073850755012</v>
+        <v>1666.050365613502</v>
       </c>
       <c r="O45" t="n">
-        <v>2004.655932583601</v>
+        <v>2212.632447442091</v>
       </c>
       <c r="P45" t="n">
-        <v>2426.333173101178</v>
+        <v>2634.309687959668</v>
       </c>
       <c r="Q45" t="n">
         <v>2655.515471877372</v>
@@ -7783,49 +7783,49 @@
         <v>511.6068229267574</v>
       </c>
       <c r="C46" t="n">
-        <v>431.4725718510431</v>
+        <v>431.4725718510432</v>
       </c>
       <c r="D46" t="n">
-        <v>370.1578642909</v>
+        <v>370.1578642909001</v>
       </c>
       <c r="E46" t="n">
-        <v>311.0467025606995</v>
+        <v>311.0467025606997</v>
       </c>
       <c r="F46" t="n">
-        <v>252.9586869149818</v>
+        <v>252.958686914982</v>
       </c>
       <c r="G46" t="n">
-        <v>173.1435133352163</v>
+        <v>173.1435133352165</v>
       </c>
       <c r="H46" t="n">
-        <v>107.599577560447</v>
+        <v>107.5995775604469</v>
       </c>
       <c r="I46" t="n">
-        <v>71.58127575382306</v>
+        <v>71.58127575382304</v>
       </c>
       <c r="J46" t="n">
-        <v>140.386189189201</v>
+        <v>140.3861891892007</v>
       </c>
       <c r="K46" t="n">
-        <v>327.3005393838528</v>
+        <v>327.3005393838523</v>
       </c>
       <c r="L46" t="n">
-        <v>597.6732183469047</v>
+        <v>597.6732183469044</v>
       </c>
       <c r="M46" t="n">
-        <v>888.4012303860084</v>
+        <v>888.4012303860081</v>
       </c>
       <c r="N46" t="n">
         <v>1179.7204889091</v>
       </c>
       <c r="O46" t="n">
-        <v>1439.428753208469</v>
+        <v>1439.428753208468</v>
       </c>
       <c r="P46" t="n">
         <v>1650.694846112537</v>
       </c>
       <c r="Q46" t="n">
-        <v>1740.305865566709</v>
+        <v>1740.305865566708</v>
       </c>
       <c r="R46" t="n">
         <v>1698.168490014385</v>
@@ -7843,10 +7843,10 @@
         <v>1076.246860426735</v>
       </c>
       <c r="W46" t="n">
-        <v>875.6316222419666</v>
+        <v>875.6316222419667</v>
       </c>
       <c r="X46" t="n">
-        <v>736.4440031961419</v>
+        <v>736.444003196142</v>
       </c>
       <c r="Y46" t="n">
         <v>604.4533559048045</v>
@@ -7979,7 +7979,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K2" t="n">
-        <v>324.1454125711647</v>
+        <v>324.1454125711648</v>
       </c>
       <c r="L2" t="n">
         <v>417.6612145504504</v>
@@ -8061,16 +8061,16 @@
         <v>264.4652370125786</v>
       </c>
       <c r="L3" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M3" t="n">
-        <v>233.2169876979182</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N3" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O3" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P3" t="n">
         <v>318.4627686399372</v>
@@ -8295,19 +8295,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L6" t="n">
-        <v>138.5543797798742</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M6" t="n">
-        <v>359.8407857361378</v>
+        <v>241.9453110519923</v>
       </c>
       <c r="N6" t="n">
         <v>372.3560009609923</v>
       </c>
       <c r="O6" t="n">
-        <v>383.6105333221035</v>
+        <v>142.5962444444444</v>
       </c>
       <c r="P6" t="n">
         <v>318.4627686399372</v>
@@ -8532,16 +8532,16 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K9" t="n">
-        <v>137.841438974359</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M9" t="n">
-        <v>382.1386950879875</v>
+        <v>383.1483227996774</v>
       </c>
       <c r="N9" t="n">
-        <v>372.3560009609923</v>
+        <v>244.7225752110828</v>
       </c>
       <c r="O9" t="n">
         <v>383.6105333221035</v>
@@ -8766,7 +8766,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J12" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K12" t="n">
         <v>264.4652370125786</v>
@@ -8778,10 +8778,10 @@
         <v>0</v>
       </c>
       <c r="N12" t="n">
-        <v>68.40701148213711</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O12" t="n">
-        <v>393.8623192767295</v>
+        <v>101.6400704786573</v>
       </c>
       <c r="P12" t="n">
         <v>318.4627686399372</v>
@@ -8945,7 +8945,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q14" t="n">
-        <v>212.3149906599047</v>
+        <v>212.3149906599042</v>
       </c>
       <c r="R14" t="n">
         <v>65.71641987298243</v>
@@ -9003,25 +9003,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J15" t="n">
-        <v>7.377921277065383</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K15" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L15" t="n">
-        <v>370.8403453034592</v>
+        <v>278.3677510819805</v>
       </c>
       <c r="M15" t="n">
         <v>0</v>
       </c>
       <c r="N15" t="n">
-        <v>187.1201255454812</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O15" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P15" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q15" t="n">
         <v>210.0772877358491</v>
@@ -9161,7 +9161,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>169.0966151720746</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K17" t="n">
         <v>324.1454125711647</v>
@@ -9249,19 +9249,19 @@
         <v>370.8403453034592</v>
       </c>
       <c r="M18" t="n">
-        <v>68.40701148213751</v>
+        <v>0</v>
       </c>
       <c r="N18" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O18" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P18" t="n">
-        <v>318.4627686399372</v>
+        <v>117.6046935143703</v>
       </c>
       <c r="Q18" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R18" t="n">
         <v>45.52166981132082</v>
@@ -9413,10 +9413,10 @@
         <v>437.3469244119842</v>
       </c>
       <c r="O20" t="n">
-        <v>380.8001812627454</v>
+        <v>380.800181262745</v>
       </c>
       <c r="P20" t="n">
-        <v>321.7987081714834</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q20" t="n">
         <v>212.3149906599047</v>
@@ -9477,25 +9477,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J21" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K21" t="n">
         <v>0</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>370.8403453034592</v>
       </c>
       <c r="M21" t="n">
         <v>465.7050637499999</v>
       </c>
       <c r="N21" t="n">
-        <v>479.3423743435536</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
-        <v>393.8623192767295</v>
+        <v>379.7426180847892</v>
       </c>
       <c r="P21" t="n">
-        <v>77.12792434455898</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q21" t="n">
         <v>210.0772877358491</v>
@@ -9647,7 +9647,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N23" t="n">
-        <v>437.3469244119854</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O23" t="n">
         <v>380.8001812627454</v>
@@ -9717,19 +9717,19 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K24" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>370.8403453034592</v>
+        <v>152.5274749813515</v>
       </c>
       <c r="M24" t="n">
-        <v>0</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N24" t="n">
-        <v>68.40701148213773</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O24" t="n">
-        <v>393.8623192767295</v>
+        <v>0</v>
       </c>
       <c r="P24" t="n">
         <v>318.4627686399372</v>
@@ -9951,10 +9951,10 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J27" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K27" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L27" t="n">
         <v>370.8403453034592</v>
@@ -9966,13 +9966,13 @@
         <v>479.3423743435536</v>
       </c>
       <c r="O27" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P27" t="n">
-        <v>45.76194904110011</v>
+        <v>0</v>
       </c>
       <c r="Q27" t="n">
-        <v>0</v>
+        <v>35.07798084029262</v>
       </c>
       <c r="R27" t="n">
         <v>45.52166981132082</v>
@@ -10127,7 +10127,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P29" t="n">
-        <v>321.7987081714825</v>
+        <v>321.7987081714826</v>
       </c>
       <c r="Q29" t="n">
         <v>212.3149906599047</v>
@@ -10188,25 +10188,25 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J30" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K30" t="n">
         <v>264.4652370125786</v>
       </c>
       <c r="L30" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M30" t="n">
-        <v>68.40701148213751</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N30" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O30" t="n">
-        <v>393.8623192767295</v>
+        <v>325.2381206720535</v>
       </c>
       <c r="P30" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q30" t="n">
         <v>210.0772877358491</v>
@@ -10428,25 +10428,25 @@
         <v>126.0910353404088</v>
       </c>
       <c r="K33" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L33" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M33" t="n">
-        <v>301.3897250552508</v>
+        <v>0</v>
       </c>
       <c r="N33" t="n">
         <v>479.3423743435536</v>
       </c>
       <c r="O33" t="n">
-        <v>0</v>
+        <v>393.8623192767295</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>318.4627686399372</v>
       </c>
       <c r="Q33" t="n">
-        <v>210.0772877358491</v>
+        <v>63.60716188701183</v>
       </c>
       <c r="R33" t="n">
         <v>45.52166981132082</v>
@@ -10586,7 +10586,7 @@
         <v>169.0966151720738</v>
       </c>
       <c r="K35" t="n">
-        <v>324.1454125711647</v>
+        <v>230.7471458459407</v>
       </c>
       <c r="L35" t="n">
         <v>417.6612145504504</v>
@@ -10595,7 +10595,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N35" t="n">
-        <v>343.9486576867607</v>
+        <v>437.3469244119842</v>
       </c>
       <c r="O35" t="n">
         <v>380.8001812627454</v>
@@ -10668,13 +10668,13 @@
         <v>0</v>
       </c>
       <c r="L36" t="n">
-        <v>370.8403453034592</v>
+        <v>0</v>
       </c>
       <c r="M36" t="n">
-        <v>465.7050637499999</v>
+        <v>224.370219454622</v>
       </c>
       <c r="N36" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O36" t="n">
         <v>393.8623192767295</v>
@@ -10683,7 +10683,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q36" t="n">
-        <v>77.24447248056498</v>
+        <v>210.0772877358491</v>
       </c>
       <c r="R36" t="n">
         <v>45.52166981132082</v>
@@ -10829,7 +10829,7 @@
         <v>417.6612145504504</v>
       </c>
       <c r="M38" t="n">
-        <v>356.1152667676089</v>
+        <v>449.5135334928325</v>
       </c>
       <c r="N38" t="n">
         <v>437.3469244119842</v>
@@ -10838,7 +10838,7 @@
         <v>380.8001812627454</v>
       </c>
       <c r="P38" t="n">
-        <v>321.7987081714826</v>
+        <v>228.400441446259</v>
       </c>
       <c r="Q38" t="n">
         <v>212.3149906599047</v>
@@ -10899,28 +10899,28 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J39" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K39" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L39" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M39" t="n">
-        <v>68.40701148213773</v>
+        <v>465.7050637499999</v>
       </c>
       <c r="N39" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O39" t="n">
         <v>393.8623192767295</v>
       </c>
       <c r="P39" t="n">
-        <v>318.4627686399372</v>
+        <v>35.0779808402927</v>
       </c>
       <c r="Q39" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
         <v>45.52166981132082</v>
@@ -11069,7 +11069,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N41" t="n">
-        <v>437.3469244119842</v>
+        <v>343.9486576867597</v>
       </c>
       <c r="O41" t="n">
         <v>380.8001812627454</v>
@@ -11078,7 +11078,7 @@
         <v>321.7987081714826</v>
       </c>
       <c r="Q41" t="n">
-        <v>118.9167239346816</v>
+        <v>212.3149906599047</v>
       </c>
       <c r="R41" t="n">
         <v>65.71641987298243</v>
@@ -11136,19 +11136,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J42" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065383</v>
       </c>
       <c r="K42" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L42" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M42" t="n">
-        <v>68.40701148213773</v>
+        <v>182.3202759503554</v>
       </c>
       <c r="N42" t="n">
-        <v>0</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O42" t="n">
         <v>393.8623192767295</v>
@@ -11157,7 +11157,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q42" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R42" t="n">
         <v>45.52166981132082</v>
@@ -11294,7 +11294,7 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>75.69834844685067</v>
+        <v>169.0966151720738</v>
       </c>
       <c r="K44" t="n">
         <v>324.1454125711647</v>
@@ -11306,7 +11306,7 @@
         <v>449.5135334928325</v>
       </c>
       <c r="N44" t="n">
-        <v>437.3469244119842</v>
+        <v>343.9486576867615</v>
       </c>
       <c r="O44" t="n">
         <v>380.8001812627454</v>
@@ -11373,19 +11373,19 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J45" t="n">
-        <v>126.0910353404088</v>
+        <v>7.377921277065454</v>
       </c>
       <c r="K45" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L45" t="n">
         <v>370.8403453034592</v>
       </c>
       <c r="M45" t="n">
-        <v>0</v>
+        <v>182.3202759503561</v>
       </c>
       <c r="N45" t="n">
-        <v>68.40701148213773</v>
+        <v>479.3423743435536</v>
       </c>
       <c r="O45" t="n">
         <v>393.8623192767295</v>
@@ -11394,7 +11394,7 @@
         <v>318.4627686399372</v>
       </c>
       <c r="Q45" t="n">
-        <v>210.0772877358491</v>
+        <v>0</v>
       </c>
       <c r="R45" t="n">
         <v>45.52166981132082</v>
@@ -23261,7 +23261,7 @@
         <v>0</v>
       </c>
       <c r="D11" t="n">
-        <v>0</v>
+        <v>63.49976999720406</v>
       </c>
       <c r="E11" t="n">
         <v>0</v>
@@ -23273,7 +23273,7 @@
         <v>0</v>
       </c>
       <c r="H11" t="n">
-        <v>0</v>
+        <v>294.8530230257433</v>
       </c>
       <c r="I11" t="n">
         <v>98.94929161302576</v>
@@ -23306,19 +23306,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>134.7491374664341</v>
+        <v>134.749137466434</v>
       </c>
       <c r="T11" t="n">
-        <v>149.1046808642734</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>230.7368224059507</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
-        <v>307.33248304386</v>
+        <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>328.8211932911381</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>159.4122047556623</v>
       </c>
       <c r="C13" t="n">
         <v>146.8270456723529</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>128.1956975919374</v>
       </c>
       <c r="E13" t="n">
-        <v>126.0141872202943</v>
+        <v>126.0141872202942</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G13" t="n">
         <v>146.5111589513636</v>
@@ -23434,7 +23434,7 @@
         <v>132.3826335244176</v>
       </c>
       <c r="I13" t="n">
-        <v>0</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23461,28 +23461,28 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>109.2101389041963</v>
+        <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>185.1231296267668</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
         <v>0</v>
       </c>
       <c r="U13" t="n">
-        <v>265.2248392427405</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
-        <v>231.7178678975531</v>
+        <v>0</v>
       </c>
       <c r="W13" t="n">
-        <v>266.1032229103161</v>
+        <v>266.103222910316</v>
       </c>
       <c r="X13" t="n">
-        <v>0</v>
+        <v>77.34966690522741</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="14">
@@ -23495,7 +23495,7 @@
         <v>0</v>
       </c>
       <c r="C14" t="n">
-        <v>344.8531163447327</v>
+        <v>0</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -23513,7 +23513,7 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>54.86688903839956</v>
+        <v>98.94929161302576</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -23543,7 +23543,7 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>134.749137466434</v>
       </c>
       <c r="T14" t="n">
         <v>192.3312167192736</v>
@@ -23552,10 +23552,10 @@
         <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>307.33248304386</v>
       </c>
       <c r="W14" t="n">
-        <v>328.8211932911381</v>
+        <v>187.5102865509514</v>
       </c>
       <c r="X14" t="n">
         <v>0</v>
@@ -23650,7 +23650,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>159.4122047556624</v>
+        <v>159.4122047556623</v>
       </c>
       <c r="C16" t="n">
         <v>146.8270456723529</v>
@@ -23659,19 +23659,19 @@
         <v>128.1956975919374</v>
       </c>
       <c r="E16" t="n">
-        <v>126.0141872202943</v>
+        <v>126.0141872202942</v>
       </c>
       <c r="F16" t="n">
-        <v>0</v>
+        <v>125.0012725966563</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>146.5111589513636</v>
       </c>
       <c r="H16" t="n">
-        <v>108.4340216396394</v>
+        <v>132.3826335244176</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>103.1522558959534</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23698,28 +23698,28 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>0</v>
+        <v>109.2101389041963</v>
       </c>
       <c r="S16" t="n">
         <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>202.9965309021383</v>
+        <v>28.95287094858461</v>
       </c>
       <c r="U16" t="n">
-        <v>265.8414332948985</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
       </c>
       <c r="W16" t="n">
-        <v>266.1032229103161</v>
+        <v>0</v>
       </c>
       <c r="X16" t="n">
         <v>205.2898799627622</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>198.1648779258198</v>
       </c>
     </row>
     <row r="17">
@@ -23896,10 +23896,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>64.62269286072465</v>
+        <v>0</v>
       </c>
       <c r="F19" t="n">
-        <v>63.60977823708673</v>
+        <v>63.60977823708657</v>
       </c>
       <c r="G19" t="n">
         <v>0</v>
@@ -23908,7 +23908,7 @@
         <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>41.7607615363837</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23938,7 +23938,7 @@
         <v>0</v>
       </c>
       <c r="S19" t="n">
-        <v>0</v>
+        <v>40.12134544890053</v>
       </c>
       <c r="T19" t="n">
         <v>0</v>
@@ -23947,7 +23947,7 @@
         <v>0</v>
       </c>
       <c r="V19" t="n">
-        <v>17.25941412456396</v>
+        <v>0</v>
       </c>
       <c r="W19" t="n">
         <v>0</v>
@@ -24136,16 +24136,16 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>18.61145909419532</v>
       </c>
       <c r="G22" t="n">
-        <v>0</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H22" t="n">
         <v>0</v>
       </c>
       <c r="I22" t="n">
-        <v>0</v>
+        <v>41.76076153638377</v>
       </c>
       <c r="J22" t="n">
         <v>0</v>
@@ -24187,7 +24187,7 @@
         <v>0</v>
       </c>
       <c r="W22" t="n">
-        <v>145.4918852223745</v>
+        <v>0</v>
       </c>
       <c r="X22" t="n">
         <v>0</v>
@@ -24370,19 +24370,19 @@
         <v>0</v>
       </c>
       <c r="E25" t="n">
-        <v>64.62269286072465</v>
+        <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>63.60977823708673</v>
+        <v>63.60977823708667</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>40.1213454489031</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>41.7607615363838</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>17.25941412456338</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,19 +24607,19 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>64.62269286072456</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
-        <v>63.60977823708663</v>
+        <v>63.60977823708664</v>
       </c>
       <c r="G28" t="n">
         <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>70.99113916484791</v>
       </c>
       <c r="I28" t="n">
-        <v>0</v>
+        <v>10.89096782043822</v>
       </c>
       <c r="J28" t="n">
         <v>0</v>
@@ -24649,7 +24649,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>17.25941412456103</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24835,7 +24835,7 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>17.25941412456171</v>
+        <v>0</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
@@ -24844,16 +24844,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>64.62269286072457</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>63.60977823708664</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0</v>
+        <v>85.11966459179395</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>60.37222063057889</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -26311,10 +26311,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="C2" t="n">
-        <v>143682.3097262496</v>
+        <v>143682.3097262495</v>
       </c>
       <c r="D2" t="n">
         <v>143682.3097262496</v>
@@ -26323,19 +26323,19 @@
         <v>124096.2772392275</v>
       </c>
       <c r="F2" t="n">
-        <v>124096.2772392275</v>
+        <v>124096.2772392274</v>
       </c>
       <c r="G2" t="n">
-        <v>143071.2438083156</v>
+        <v>143071.2438083155</v>
       </c>
       <c r="H2" t="n">
-        <v>143071.2438083157</v>
+        <v>143071.2438083155</v>
       </c>
       <c r="I2" t="n">
         <v>143071.2438083156</v>
       </c>
       <c r="J2" t="n">
-        <v>143071.2438083156</v>
+        <v>143071.2438083155</v>
       </c>
       <c r="K2" t="n">
         <v>143071.2438083156</v>
@@ -26350,10 +26350,10 @@
         <v>143682.3097262495</v>
       </c>
       <c r="O2" t="n">
-        <v>143682.3097262498</v>
+        <v>143682.3097262494</v>
       </c>
       <c r="P2" t="n">
-        <v>143682.3097262495</v>
+        <v>143682.3097262497</v>
       </c>
     </row>
     <row r="3">
@@ -26372,13 +26372,13 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>690849.4200146755</v>
+        <v>690849.4200146751</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>49113.19548765568</v>
+        <v>49113.19548765578</v>
       </c>
       <c r="H3" t="n">
         <v>0</v>
@@ -26387,22 +26387,22 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>79395.76294012615</v>
+        <v>79395.76294012624</v>
       </c>
       <c r="K3" t="n">
-        <v>4.547473508864641e-11</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>53995.30968591656</v>
+        <v>53995.30968591666</v>
       </c>
       <c r="M3" t="n">
-        <v>162917.5281914785</v>
+        <v>162917.5281914782</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
       </c>
       <c r="O3" t="n">
-        <v>16335.82034102003</v>
+        <v>16335.82034102001</v>
       </c>
       <c r="P3" t="n">
         <v>0</v>
@@ -26415,7 +26415,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>337698.1101336325</v>
+        <v>337698.1101336324</v>
       </c>
       <c r="C4" t="n">
         <v>337698.1101336324</v>
@@ -26424,19 +26424,19 @@
         <v>337698.1101336324</v>
       </c>
       <c r="E4" t="n">
-        <v>77722.18828821059</v>
+        <v>77722.18828821063</v>
       </c>
       <c r="F4" t="n">
-        <v>77722.1882882106</v>
+        <v>77722.18828821061</v>
       </c>
       <c r="G4" t="n">
-        <v>139761.1003882447</v>
+        <v>139761.1003882449</v>
       </c>
       <c r="H4" t="n">
-        <v>139761.1003882447</v>
+        <v>139761.1003882448</v>
       </c>
       <c r="I4" t="n">
-        <v>139761.1003882447</v>
+        <v>139761.1003882448</v>
       </c>
       <c r="J4" t="n">
         <v>139761.1003882448</v>
@@ -26448,13 +26448,13 @@
         <v>141769.1739806987</v>
       </c>
       <c r="M4" t="n">
-        <v>144615.9103121398</v>
+        <v>144615.9103121397</v>
       </c>
       <c r="N4" t="n">
         <v>144615.9103121398</v>
       </c>
       <c r="O4" t="n">
-        <v>144615.9103121397</v>
+        <v>144615.9103121398</v>
       </c>
       <c r="P4" t="n">
         <v>144615.9103121398</v>
@@ -26476,40 +26476,40 @@
         <v>48281.26876376167</v>
       </c>
       <c r="E5" t="n">
-        <v>70367.5597300794</v>
+        <v>70367.55973007937</v>
       </c>
       <c r="F5" t="n">
-        <v>70367.5597300794</v>
+        <v>70367.55973007937</v>
       </c>
       <c r="G5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939404</v>
       </c>
       <c r="H5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939403</v>
       </c>
       <c r="I5" t="n">
-        <v>75528.68126939406</v>
+        <v>75528.68126939403</v>
       </c>
       <c r="J5" t="n">
         <v>75528.68126939404</v>
       </c>
       <c r="K5" t="n">
-        <v>75528.68126939404</v>
+        <v>75528.68126939403</v>
       </c>
       <c r="L5" t="n">
         <v>76041.72434256104</v>
       </c>
       <c r="M5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="N5" t="n">
         <v>74607.58442655986</v>
       </c>
       <c r="O5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
       <c r="P5" t="n">
-        <v>74607.58442655986</v>
+        <v>74607.58442655984</v>
       </c>
     </row>
     <row r="6">
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-323066.5007026923</v>
+        <v>-323066.5007026924</v>
       </c>
       <c r="C6" t="n">
-        <v>-242297.0691711445</v>
+        <v>-242297.0691711446</v>
       </c>
       <c r="D6" t="n">
         <v>-242297.0691711445</v>
       </c>
       <c r="E6" t="n">
-        <v>-714842.8907937378</v>
+        <v>-715122.691257838</v>
       </c>
       <c r="F6" t="n">
-        <v>-23993.47077906247</v>
+        <v>-24273.27124316286</v>
       </c>
       <c r="G6" t="n">
-        <v>-121331.7333369788</v>
+        <v>-121340.4628500925</v>
       </c>
       <c r="H6" t="n">
-        <v>-72218.53784932307</v>
+        <v>-72227.26736243659</v>
       </c>
       <c r="I6" t="n">
-        <v>-72218.53784932315</v>
+        <v>-72227.26736243653</v>
       </c>
       <c r="J6" t="n">
-        <v>-151614.3007894494</v>
+        <v>-151623.0303025629</v>
       </c>
       <c r="K6" t="n">
-        <v>-72218.53784932331</v>
+        <v>-72227.26736243664</v>
       </c>
       <c r="L6" t="n">
-        <v>-128123.8982829266</v>
+        <v>-128123.8982829267</v>
       </c>
       <c r="M6" t="n">
-        <v>-238458.7132039284</v>
+        <v>-238458.7132039281</v>
       </c>
       <c r="N6" t="n">
         <v>-75541.18501245009</v>
       </c>
       <c r="O6" t="n">
-        <v>-91877.00535346984</v>
+        <v>-91877.00535347026</v>
       </c>
       <c r="P6" t="n">
-        <v>-75541.18501245012</v>
+        <v>-75541.18501244993</v>
       </c>
     </row>
   </sheetData>
@@ -26692,40 +26692,40 @@
         <v>400</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G2" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="H2" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I2" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J2" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K2" t="n">
         <v>81.8112697858446</v>
       </c>
       <c r="L2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M2" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N2" t="n">
         <v>87.9139125336707</v>
       </c>
       <c r="O2" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="P2" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="3">
@@ -26744,7 +26744,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275772</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>587.843125727577</v>
@@ -26768,7 +26768,7 @@
         <v>587.843125727577</v>
       </c>
       <c r="M3" t="n">
-        <v>587.8431257275771</v>
+        <v>587.843125727577</v>
       </c>
       <c r="N3" t="n">
         <v>587.843125727577</v>
@@ -26777,7 +26777,7 @@
         <v>587.843125727577</v>
       </c>
       <c r="P3" t="n">
-        <v>587.843125727577</v>
+        <v>587.8431257275766</v>
       </c>
     </row>
     <row r="4">
@@ -26796,40 +26796,40 @@
         <v>241.0142888776591</v>
       </c>
       <c r="E4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.353774488597</v>
       </c>
       <c r="F4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.353774488597</v>
       </c>
       <c r="G4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.353774488597</v>
       </c>
       <c r="H4" t="n">
-        <v>918.3537744885973</v>
+        <v>918.353774488597</v>
       </c>
       <c r="I4" t="n">
-        <v>918.3537744885974</v>
+        <v>918.353774488597</v>
       </c>
       <c r="J4" t="n">
         <v>918.3537744885971</v>
       </c>
       <c r="K4" t="n">
+        <v>918.353774488597</v>
+      </c>
+      <c r="L4" t="n">
         <v>918.3537744885971</v>
       </c>
-      <c r="L4" t="n">
-        <v>918.353774488597</v>
-      </c>
       <c r="M4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.765946922788</v>
       </c>
       <c r="N4" t="n">
         <v>894.7659469227881</v>
       </c>
       <c r="O4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.7659469227879</v>
       </c>
       <c r="P4" t="n">
-        <v>894.7659469227882</v>
+        <v>894.765946922788</v>
       </c>
     </row>
   </sheetData>
@@ -26914,13 +26914,13 @@
         <v>0</v>
       </c>
       <c r="E2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F2" t="n">
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>61.39149435956961</v>
+        <v>61.39149435956973</v>
       </c>
       <c r="H2" t="n">
         <v>0</v>
@@ -26929,13 +26929,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627501</v>
+        <v>20.41977542627497</v>
       </c>
       <c r="K2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>67.4941371073957</v>
+        <v>67.49413710739583</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -26944,7 +26944,7 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627504</v>
+        <v>20.41977542627502</v>
       </c>
       <c r="P2" t="n">
         <v>0</v>
@@ -26966,7 +26966,7 @@
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>587.8431257275772</v>
+        <v>587.843125727577</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>677.3394856109383</v>
+        <v>677.3394856109379</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>241.0142888776587</v>
+        <v>241.0142888776592</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>653.7516580451295</v>
+        <v>653.7516580451288</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27151,13 +27151,13 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
       </c>
       <c r="L2" t="n">
-        <v>61.39149435956961</v>
+        <v>61.39149435956973</v>
       </c>
       <c r="M2" t="n">
         <v>0</v>
@@ -27166,10 +27166,10 @@
         <v>0</v>
       </c>
       <c r="O2" t="n">
-        <v>20.41977542627501</v>
+        <v>20.41977542627497</v>
       </c>
       <c r="P2" t="n">
-        <v>5.684341886080801e-14</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>677.3394856109383</v>
+        <v>677.3394856109379</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,19 +27376,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>315.9795071664112</v>
       </c>
       <c r="C2" t="n">
         <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
-        <v>113.6687527430239</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E2" t="n">
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>165.8617568640524</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
         <v>400</v>
@@ -27397,7 +27397,7 @@
         <v>339.4748021157671</v>
       </c>
       <c r="I2" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27424,13 +27424,13 @@
         <v>0</v>
       </c>
       <c r="R2" t="n">
-        <v>149.8691179411497</v>
+        <v>0</v>
       </c>
       <c r="S2" t="n">
         <v>209.0200695862453</v>
       </c>
       <c r="T2" t="n">
-        <v>223.0958495641314</v>
+        <v>0</v>
       </c>
       <c r="U2" t="n">
         <v>251.3456529078365</v>
@@ -27439,10 +27439,10 @@
         <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>174.1983091582632</v>
+        <v>108.226679839754</v>
       </c>
       <c r="X2" t="n">
-        <v>128.71681180081</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
         <v>386.2379386560536</v>
@@ -27458,13 +27458,13 @@
         <v>166.5331836498673</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>117.13283663728</v>
       </c>
       <c r="D3" t="n">
         <v>147.4450655646388</v>
       </c>
       <c r="E3" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F3" t="n">
         <v>145.0692123933839</v>
@@ -27473,13 +27473,13 @@
         <v>137.3435171632106</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>112.2354442364965</v>
       </c>
       <c r="I3" t="n">
         <v>89.39663285141508</v>
       </c>
       <c r="J3" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -27509,13 +27509,13 @@
         <v>171.6831711038378</v>
       </c>
       <c r="T3" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U3" t="n">
         <v>225.9413820809748</v>
       </c>
       <c r="V3" t="n">
-        <v>232.8005871494253</v>
+        <v>0</v>
       </c>
       <c r="W3" t="n">
         <v>10.68069428326055</v>
@@ -27524,7 +27524,7 @@
         <v>0</v>
       </c>
       <c r="Y3" t="n">
-        <v>160.4773325884926</v>
+        <v>205.6826957773044</v>
       </c>
     </row>
     <row r="4">
@@ -27576,7 +27576,7 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q4" t="n">
         <v>86.16204325169439</v>
@@ -27591,7 +27591,7 @@
         <v>227.9455894282815</v>
       </c>
       <c r="U4" t="n">
-        <v>286.3190293564909</v>
+        <v>153.1320617711229</v>
       </c>
       <c r="V4" t="n">
         <v>252.137643323828</v>
@@ -27603,7 +27603,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>88.11912650183325</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="5">
@@ -27619,25 +27619,25 @@
         <v>365.2728917710076</v>
       </c>
       <c r="D5" t="n">
-        <v>171.2136902881097</v>
+        <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>140.9160811946027</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
         <v>400</v>
       </c>
       <c r="G5" t="n">
-        <v>174.288448637476</v>
+        <v>179.3549983061512</v>
       </c>
       <c r="H5" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I5" t="n">
-        <v>210.4758895704059</v>
+        <v>0</v>
       </c>
       <c r="J5" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K5" t="n">
         <v>0</v>
@@ -27658,7 +27658,7 @@
         <v>0</v>
       </c>
       <c r="Q5" t="n">
-        <v>0</v>
+        <v>9.990699214544804</v>
       </c>
       <c r="R5" t="n">
         <v>149.8691179411497</v>
@@ -27670,7 +27670,7 @@
         <v>223.0958495641314</v>
       </c>
       <c r="U5" t="n">
-        <v>251.3456529078365</v>
+        <v>10.33136403017744</v>
       </c>
       <c r="V5" t="n">
         <v>327.7522584701349</v>
@@ -27682,7 +27682,7 @@
         <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
-        <v>145.2236497783945</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="6">
@@ -27707,13 +27707,13 @@
         <v>145.0692123933839</v>
       </c>
       <c r="G6" t="n">
-        <v>137.3435171632106</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
-        <v>112.2354442364965</v>
+        <v>0</v>
       </c>
       <c r="I6" t="n">
-        <v>0</v>
+        <v>89.39663285141508</v>
       </c>
       <c r="J6" t="n">
         <v>0</v>
@@ -27740,22 +27740,22 @@
         <v>0</v>
       </c>
       <c r="R6" t="n">
-        <v>85.56267508295636</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
-        <v>0</v>
+        <v>53.79397666466053</v>
       </c>
       <c r="T6" t="n">
-        <v>0</v>
+        <v>200.1647286948216</v>
       </c>
       <c r="U6" t="n">
         <v>0</v>
       </c>
       <c r="V6" t="n">
-        <v>0</v>
+        <v>232.8005871494253</v>
       </c>
       <c r="W6" t="n">
-        <v>251.6949831609196</v>
+        <v>10.68069428326055</v>
       </c>
       <c r="X6" t="n">
         <v>205.7729852034775</v>
@@ -27771,7 +27771,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>68.91450442245211</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C7" t="n">
         <v>167.2468210986278</v>
@@ -27798,7 +27798,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L7" t="n">
         <v>0</v>
@@ -27831,7 +27831,7 @@
         <v>286.3190293564909</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>118.95067573846</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
@@ -27865,16 +27865,16 @@
         <v>400</v>
       </c>
       <c r="G8" t="n">
-        <v>400</v>
+        <v>174.288448637476</v>
       </c>
       <c r="H8" t="n">
-        <v>339.4748021157671</v>
+        <v>98.46051323810809</v>
       </c>
       <c r="I8" t="n">
         <v>210.4758895704059</v>
       </c>
       <c r="J8" t="n">
-        <v>0</v>
+        <v>11.94928935461252</v>
       </c>
       <c r="K8" t="n">
         <v>0</v>
@@ -27898,22 +27898,22 @@
         <v>0</v>
       </c>
       <c r="R8" t="n">
-        <v>0</v>
+        <v>149.8691179411497</v>
       </c>
       <c r="S8" t="n">
-        <v>190.7225737099568</v>
+        <v>209.0200695862453</v>
       </c>
       <c r="T8" t="n">
         <v>223.0958495641314</v>
       </c>
       <c r="U8" t="n">
-        <v>10.33136403017744</v>
+        <v>55.9270122206506</v>
       </c>
       <c r="V8" t="n">
         <v>86.73796959247585</v>
       </c>
       <c r="W8" t="n">
-        <v>108.226679839754</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
         <v>369.731100678469</v>
@@ -27938,10 +27938,10 @@
         <v>147.4450655646388</v>
       </c>
       <c r="E9" t="n">
-        <v>0</v>
+        <v>157.6450804554009</v>
       </c>
       <c r="F9" t="n">
-        <v>0</v>
+        <v>145.0692123933839</v>
       </c>
       <c r="G9" t="n">
         <v>137.3435171632106</v>
@@ -27953,7 +27953,7 @@
         <v>89.39663285141508</v>
       </c>
       <c r="J9" t="n">
-        <v>0</v>
+        <v>0.7465913262578567</v>
       </c>
       <c r="K9" t="n">
         <v>0</v>
@@ -27980,13 +27980,13 @@
         <v>100.1578341526431</v>
       </c>
       <c r="S9" t="n">
-        <v>171.6831711038378</v>
+        <v>0</v>
       </c>
       <c r="T9" t="n">
-        <v>200.1647286948216</v>
+        <v>0</v>
       </c>
       <c r="U9" t="n">
-        <v>67.88889000668252</v>
+        <v>225.9413820809748</v>
       </c>
       <c r="V9" t="n">
         <v>0</v>
@@ -27995,7 +27995,7 @@
         <v>10.68069428326055</v>
       </c>
       <c r="X9" t="n">
-        <v>205.7729852034775</v>
+        <v>116.1075087528021</v>
       </c>
       <c r="Y9" t="n">
         <v>205.6826957773044</v>
@@ -28035,7 +28035,7 @@
         <v>93.35918011667277</v>
       </c>
       <c r="K10" t="n">
-        <v>0</v>
+        <v>22.26949182588285</v>
       </c>
       <c r="L10" t="n">
         <v>0</v>
@@ -28050,7 +28050,7 @@
         <v>0</v>
       </c>
       <c r="P10" t="n">
-        <v>0</v>
+        <v>2.721440735106512</v>
       </c>
       <c r="Q10" t="n">
         <v>86.16204325169439</v>
@@ -28059,7 +28059,7 @@
         <v>177.2933913771695</v>
       </c>
       <c r="S10" t="n">
-        <v>224.0165980369723</v>
+        <v>90.82963045160423</v>
       </c>
       <c r="T10" t="n">
         <v>227.9455894282815</v>
@@ -28074,7 +28074,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>117.5136203646585</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y10" t="n">
         <v>218.5846533520948</v>
@@ -28087,28 +28087,28 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J11" t="n">
         <v>0</v>
@@ -28135,28 +28135,28 @@
         <v>0</v>
       </c>
       <c r="R11" t="n">
-        <v>1.422481774376109</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y11" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="12">
@@ -28245,76 +28245,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="L13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="M13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="N13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="O13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="P13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Q13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="R13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="S13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y13" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="14">
@@ -28324,28 +28324,28 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J14" t="n">
         <v>0</v>
@@ -28375,25 +28375,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y14" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="15">
@@ -28482,76 +28482,76 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="C16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="D16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="E16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="F16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="G16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="H16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="I16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="J16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="K16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="L16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="M16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="N16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="O16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="P16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Q16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="R16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="S16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="T16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="U16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="V16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="W16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="X16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
       <c r="Y16" t="n">
-        <v>20.41977542627491</v>
+        <v>20.41977542627495</v>
       </c>
     </row>
     <row r="17">
@@ -28561,28 +28561,28 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="C17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="D17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="E17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="F17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="G17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="H17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="I17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="J17" t="n">
         <v>0</v>
@@ -28612,25 +28612,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="T17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="U17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="V17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="W17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="X17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="Y17" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
     </row>
     <row r="18">
@@ -28719,76 +28719,76 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="C19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="D19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="E19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="F19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="G19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="H19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="I19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="J19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="K19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="L19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="M19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="N19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="O19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="P19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="Q19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="R19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="S19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="T19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="U19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="V19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="W19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="X19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
       <c r="Y19" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584467</v>
       </c>
     </row>
     <row r="20">
@@ -28798,28 +28798,28 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J20" t="n">
         <v>0</v>
@@ -28849,25 +28849,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y20" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="21">
@@ -28956,76 +28956,76 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y22" t="n">
-        <v>81.81126978584452</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="23">
@@ -29035,28 +29035,28 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J23" t="n">
         <v>0</v>
@@ -29086,25 +29086,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y23" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="24">
@@ -29193,76 +29193,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="C25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="D25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="E25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="F25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="G25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="H25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="I25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="J25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="K25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="L25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="M25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="N25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="O25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="P25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Q25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="R25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="S25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="T25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="U25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="V25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="W25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="X25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
       <c r="Y25" t="n">
-        <v>81.81126978584452</v>
+        <v>81.81126978584457</v>
       </c>
     </row>
     <row r="26">
@@ -29272,28 +29272,28 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J26" t="n">
         <v>0</v>
@@ -29323,25 +29323,25 @@
         <v>1.422481774376166</v>
       </c>
       <c r="S26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y26" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="27">
@@ -29430,76 +29430,76 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="C28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="D28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="E28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="F28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="G28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="H28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="I28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="J28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="K28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="L28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="M28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="N28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="O28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="P28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Q28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="R28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="S28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="T28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="U28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="V28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="W28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="X28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
       <c r="Y28" t="n">
-        <v>81.81126978584462</v>
+        <v>81.8112697858446</v>
       </c>
     </row>
     <row r="29">
@@ -29746,28 +29746,28 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I32" t="n">
-        <v>87.9139125336707</v>
+        <v>84.28818384994941</v>
       </c>
       <c r="J32" t="n">
         <v>0</v>
@@ -29794,28 +29794,28 @@
         <v>0</v>
       </c>
       <c r="R32" t="n">
-        <v>0</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S32" t="n">
-        <v>0</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T32" t="n">
-        <v>85.71066562432624</v>
+        <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y32" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="33">
@@ -29904,76 +29904,76 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y34" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="35">
@@ -29983,28 +29983,28 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J35" t="n">
         <v>0</v>
@@ -30031,28 +30031,28 @@
         <v>0</v>
       </c>
       <c r="R35" t="n">
-        <v>1.422481774376138</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y35" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="36">
@@ -30141,76 +30141,76 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="C37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="D37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="E37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="F37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="G37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="H37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="I37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="J37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="K37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="L37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="M37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="N37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="O37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="P37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Q37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="R37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="S37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="T37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="U37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="V37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="W37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="X37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
       <c r="Y37" t="n">
-        <v>87.9139125336707</v>
+        <v>87.91391253367071</v>
       </c>
     </row>
     <row r="38">
@@ -30457,28 +30457,28 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J41" t="n">
         <v>0</v>
@@ -30505,28 +30505,28 @@
         <v>0</v>
       </c>
       <c r="R41" t="n">
-        <v>1.422481774375266</v>
+        <v>1.422481774376166</v>
       </c>
       <c r="S41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y41" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="42">
@@ -30615,76 +30615,76 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="K43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="L43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367061</v>
       </c>
       <c r="M43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="N43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="O43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="P43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Q43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="R43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="S43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y43" t="n">
-        <v>87.91391253367073</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="44">
@@ -30694,28 +30694,28 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J44" t="n">
         <v>0</v>
@@ -30742,28 +30742,28 @@
         <v>0</v>
       </c>
       <c r="R44" t="n">
-        <v>1.422481774376166</v>
+        <v>1.422481774376251</v>
       </c>
       <c r="S44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y44" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
     <row r="45">
@@ -30852,76 +30852,76 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="C46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="D46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="E46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="F46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="G46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="H46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="I46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="J46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="K46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="L46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="M46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="N46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="O46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="P46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Q46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="R46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="S46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="T46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="U46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="V46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="W46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="X46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
       <c r="Y46" t="n">
-        <v>87.91391253367068</v>
+        <v>87.91391253367074</v>
       </c>
     </row>
   </sheetData>
@@ -31750,46 +31750,46 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>2.363188445135987</v>
+        <v>2.363188445135986</v>
       </c>
       <c r="H11" t="n">
         <v>24.20200366374893</v>
       </c>
       <c r="I11" t="n">
-        <v>91.10682253110522</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J11" t="n">
-        <v>200.5726652953607</v>
+        <v>200.5726652953606</v>
       </c>
       <c r="K11" t="n">
-        <v>300.6064321779671</v>
+        <v>300.606432177967</v>
       </c>
       <c r="L11" t="n">
-        <v>372.9288605557976</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M11" t="n">
-        <v>414.9552130669847</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N11" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O11" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P11" t="n">
-        <v>339.8294523961116</v>
+        <v>339.8294523961115</v>
       </c>
       <c r="Q11" t="n">
-        <v>255.197766204679</v>
+        <v>255.1977662046789</v>
       </c>
       <c r="R11" t="n">
-        <v>148.4466361667736</v>
+        <v>148.4466361667735</v>
       </c>
       <c r="S11" t="n">
-        <v>53.85115669353636</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T11" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U11" t="n">
         <v>0.1890550756108789</v>
@@ -31829,49 +31829,49 @@
         <v>0</v>
       </c>
       <c r="G12" t="n">
-        <v>1.264417289300827</v>
+        <v>1.264417289300826</v>
       </c>
       <c r="H12" t="n">
-        <v>12.21160908351062</v>
+        <v>12.21160908351061</v>
       </c>
       <c r="I12" t="n">
-        <v>43.53366544303285</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J12" t="n">
-        <v>119.4597053896014</v>
+        <v>119.4597053896013</v>
       </c>
       <c r="K12" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L12" t="n">
-        <v>274.5393767843747</v>
+        <v>274.5393767843746</v>
       </c>
       <c r="M12" t="n">
-        <v>320.3745035215296</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N12" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O12" t="n">
-        <v>300.8370381258857</v>
+        <v>300.8370381258856</v>
       </c>
       <c r="P12" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q12" t="n">
-        <v>161.4017578412775</v>
+        <v>161.4017578412774</v>
       </c>
       <c r="R12" t="n">
-        <v>78.50478573395836</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S12" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T12" t="n">
-        <v>5.096488986260786</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U12" t="n">
-        <v>0.08318534798031757</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V12" t="n">
         <v>0</v>
@@ -31911,46 +31911,46 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H13" t="n">
-        <v>9.424763556747063</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I13" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J13" t="n">
-        <v>74.94518014398963</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K13" t="n">
         <v>123.1579532262038</v>
       </c>
       <c r="L13" t="n">
-        <v>157.5997783303082</v>
+        <v>157.5997783303081</v>
       </c>
       <c r="M13" t="n">
-        <v>166.1668691298461</v>
+        <v>166.166869129846</v>
       </c>
       <c r="N13" t="n">
-        <v>162.2157923831527</v>
+        <v>162.2157923831526</v>
       </c>
       <c r="O13" t="n">
-        <v>149.8325396526619</v>
+        <v>149.8325396526618</v>
       </c>
       <c r="P13" t="n">
         <v>128.2076220439292</v>
       </c>
       <c r="Q13" t="n">
-        <v>88.76431198486415</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R13" t="n">
-        <v>47.66347704669829</v>
+        <v>47.66347704669828</v>
       </c>
       <c r="S13" t="n">
         <v>18.47369298393057</v>
       </c>
       <c r="T13" t="n">
-        <v>4.529283099868216</v>
+        <v>4.529283099868215</v>
       </c>
       <c r="U13" t="n">
-        <v>0.05782063531746667</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -33652,7 +33652,7 @@
         <v>24.20200366374893</v>
       </c>
       <c r="I35" t="n">
-        <v>91.10682253110521</v>
+        <v>91.10682253110519</v>
       </c>
       <c r="J35" t="n">
         <v>200.5726652953606</v>
@@ -33661,16 +33661,16 @@
         <v>300.606432177967</v>
       </c>
       <c r="L35" t="n">
-        <v>372.9288605557975</v>
+        <v>372.9288605557974</v>
       </c>
       <c r="M35" t="n">
-        <v>414.9552130669846</v>
+        <v>414.9552130669845</v>
       </c>
       <c r="N35" t="n">
-        <v>421.6696222367273</v>
+        <v>421.6696222367272</v>
       </c>
       <c r="O35" t="n">
-        <v>398.1706671354063</v>
+        <v>398.1706671354062</v>
       </c>
       <c r="P35" t="n">
         <v>339.8294523961115</v>
@@ -33682,10 +33682,10 @@
         <v>148.4466361667735</v>
       </c>
       <c r="S35" t="n">
-        <v>53.85115669353635</v>
+        <v>53.85115669353634</v>
       </c>
       <c r="T35" t="n">
-        <v>10.34485741858279</v>
+        <v>10.34485741858278</v>
       </c>
       <c r="U35" t="n">
         <v>0.1890550756108789</v>
@@ -33731,43 +33731,43 @@
         <v>12.21160908351061</v>
       </c>
       <c r="I36" t="n">
-        <v>43.53366544303284</v>
+        <v>43.53366544303283</v>
       </c>
       <c r="J36" t="n">
         <v>119.4597053896013</v>
       </c>
       <c r="K36" t="n">
-        <v>204.1756637727567</v>
+        <v>204.1756637727566</v>
       </c>
       <c r="L36" t="n">
         <v>274.5393767843746</v>
       </c>
       <c r="M36" t="n">
-        <v>320.3745035215295</v>
+        <v>320.3745035215294</v>
       </c>
       <c r="N36" t="n">
-        <v>328.8538633256566</v>
+        <v>328.8538633256565</v>
       </c>
       <c r="O36" t="n">
         <v>300.8370381258856</v>
       </c>
       <c r="P36" t="n">
-        <v>241.4482453578043</v>
+        <v>241.4482453578042</v>
       </c>
       <c r="Q36" t="n">
         <v>161.4017578412774</v>
       </c>
       <c r="R36" t="n">
-        <v>78.50478573395834</v>
+        <v>78.50478573395833</v>
       </c>
       <c r="S36" t="n">
-        <v>23.4859965797763</v>
+        <v>23.48599657977629</v>
       </c>
       <c r="T36" t="n">
-        <v>5.096488986260785</v>
+        <v>5.096488986260784</v>
       </c>
       <c r="U36" t="n">
-        <v>0.08318534798031756</v>
+        <v>0.08318534798031753</v>
       </c>
       <c r="V36" t="n">
         <v>0</v>
@@ -33807,13 +33807,13 @@
         <v>1.060044980820221</v>
       </c>
       <c r="H37" t="n">
-        <v>9.424763556747061</v>
+        <v>9.42476355674706</v>
       </c>
       <c r="I37" t="n">
-        <v>31.87844360502993</v>
+        <v>31.87844360502992</v>
       </c>
       <c r="J37" t="n">
-        <v>74.94518014398962</v>
+        <v>74.9451801439896</v>
       </c>
       <c r="K37" t="n">
         <v>123.1579532262038</v>
@@ -33834,7 +33834,7 @@
         <v>128.2076220439292</v>
       </c>
       <c r="Q37" t="n">
-        <v>88.76431198486414</v>
+        <v>88.76431198486412</v>
       </c>
       <c r="R37" t="n">
         <v>47.66347704669828</v>
@@ -33846,7 +33846,7 @@
         <v>4.529283099868215</v>
       </c>
       <c r="U37" t="n">
-        <v>0.05782063531746666</v>
+        <v>0.05782063531746665</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -34357,49 +34357,49 @@
         <v>0</v>
       </c>
       <c r="G44" t="n">
-        <v>2.363188445135986</v>
+        <v>2.363188445135985</v>
       </c>
       <c r="H44" t="n">
-        <v>24.20200366374893</v>
+        <v>24.20200366374891</v>
       </c>
       <c r="I44" t="n">
-        <v>91.10682253110519</v>
+        <v>91.10682253110514</v>
       </c>
       <c r="J44" t="n">
-        <v>200.5726652953606</v>
+        <v>200.5726652953605</v>
       </c>
       <c r="K44" t="n">
-        <v>300.606432177967</v>
+        <v>300.6064321779668</v>
       </c>
       <c r="L44" t="n">
-        <v>372.9288605557974</v>
+        <v>372.9288605557973</v>
       </c>
       <c r="M44" t="n">
-        <v>414.9552130669845</v>
+        <v>414.9552130669843</v>
       </c>
       <c r="N44" t="n">
-        <v>421.6696222367272</v>
+        <v>421.6696222367269</v>
       </c>
       <c r="O44" t="n">
-        <v>398.1706671354062</v>
+        <v>398.1706671354059</v>
       </c>
       <c r="P44" t="n">
-        <v>339.8294523961115</v>
+        <v>339.8294523961113</v>
       </c>
       <c r="Q44" t="n">
-        <v>255.1977662046789</v>
+        <v>255.1977662046787</v>
       </c>
       <c r="R44" t="n">
-        <v>148.4466361667735</v>
+        <v>148.4466361667734</v>
       </c>
       <c r="S44" t="n">
-        <v>53.85115669353634</v>
+        <v>53.8511566935363</v>
       </c>
       <c r="T44" t="n">
         <v>10.34485741858278</v>
       </c>
       <c r="U44" t="n">
-        <v>0.1890550756108789</v>
+        <v>0.1890550756108788</v>
       </c>
       <c r="V44" t="n">
         <v>0</v>
@@ -34436,49 +34436,49 @@
         <v>0</v>
       </c>
       <c r="G45" t="n">
-        <v>1.264417289300826</v>
+        <v>1.264417289300825</v>
       </c>
       <c r="H45" t="n">
-        <v>12.21160908351061</v>
+        <v>12.2116090835106</v>
       </c>
       <c r="I45" t="n">
-        <v>43.53366544303283</v>
+        <v>43.5336654430328</v>
       </c>
       <c r="J45" t="n">
-        <v>119.4597053896013</v>
+        <v>119.4597053896012</v>
       </c>
       <c r="K45" t="n">
-        <v>204.1756637727566</v>
+        <v>204.1756637727565</v>
       </c>
       <c r="L45" t="n">
-        <v>274.5393767843746</v>
+        <v>274.5393767843744</v>
       </c>
       <c r="M45" t="n">
-        <v>320.3745035215294</v>
+        <v>320.3745035215292</v>
       </c>
       <c r="N45" t="n">
-        <v>328.8538633256565</v>
+        <v>328.8538633256563</v>
       </c>
       <c r="O45" t="n">
-        <v>300.8370381258856</v>
+        <v>300.8370381258854</v>
       </c>
       <c r="P45" t="n">
-        <v>241.4482453578042</v>
+        <v>241.4482453578041</v>
       </c>
       <c r="Q45" t="n">
-        <v>161.4017578412774</v>
+        <v>161.4017578412773</v>
       </c>
       <c r="R45" t="n">
-        <v>78.50478573395833</v>
+        <v>78.50478573395829</v>
       </c>
       <c r="S45" t="n">
-        <v>23.48599657977629</v>
+        <v>23.48599657977628</v>
       </c>
       <c r="T45" t="n">
-        <v>5.096488986260784</v>
+        <v>5.096488986260781</v>
       </c>
       <c r="U45" t="n">
-        <v>0.08318534798031753</v>
+        <v>0.08318534798031749</v>
       </c>
       <c r="V45" t="n">
         <v>0</v>
@@ -34515,49 +34515,49 @@
         <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>1.060044980820221</v>
+        <v>1.06004498082022</v>
       </c>
       <c r="H46" t="n">
-        <v>9.42476355674706</v>
+        <v>9.424763556747054</v>
       </c>
       <c r="I46" t="n">
-        <v>31.87844360502992</v>
+        <v>31.8784436050299</v>
       </c>
       <c r="J46" t="n">
-        <v>74.9451801439896</v>
+        <v>74.94518014398956</v>
       </c>
       <c r="K46" t="n">
-        <v>123.1579532262038</v>
+        <v>123.1579532262037</v>
       </c>
       <c r="L46" t="n">
-        <v>157.5997783303081</v>
+        <v>157.599778330308</v>
       </c>
       <c r="M46" t="n">
-        <v>166.166869129846</v>
+        <v>166.1668691298459</v>
       </c>
       <c r="N46" t="n">
-        <v>162.2157923831526</v>
+        <v>162.2157923831525</v>
       </c>
       <c r="O46" t="n">
-        <v>149.8325396526618</v>
+        <v>149.8325396526617</v>
       </c>
       <c r="P46" t="n">
-        <v>128.2076220439292</v>
+        <v>128.2076220439291</v>
       </c>
       <c r="Q46" t="n">
-        <v>88.76431198486412</v>
+        <v>88.76431198486407</v>
       </c>
       <c r="R46" t="n">
-        <v>47.66347704669828</v>
+        <v>47.66347704669825</v>
       </c>
       <c r="S46" t="n">
-        <v>18.47369298393057</v>
+        <v>18.47369298393055</v>
       </c>
       <c r="T46" t="n">
-        <v>4.529283099868215</v>
+        <v>4.529283099868212</v>
       </c>
       <c r="U46" t="n">
-        <v>0.05782063531746665</v>
+        <v>0.05782063531746662</v>
       </c>
       <c r="V46" t="n">
         <v>0</v>
@@ -34781,16 +34781,16 @@
         <v>126.6237980382196</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M3" t="n">
-        <v>91.0829537758999</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N3" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O3" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P3" t="n">
         <v>184.4883612256069</v>
@@ -35015,19 +35015,19 @@
         <v>0</v>
       </c>
       <c r="K6" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L6" t="n">
-        <v>0</v>
+        <v>232.285965523585</v>
       </c>
       <c r="M6" t="n">
-        <v>217.7067518141195</v>
+        <v>99.81127712997396</v>
       </c>
       <c r="N6" t="n">
         <v>241.0142888776591</v>
       </c>
       <c r="O6" t="n">
-        <v>241.0142888776591</v>
+        <v>0</v>
       </c>
       <c r="P6" t="n">
         <v>184.4883612256069</v>
@@ -35252,16 +35252,16 @@
         <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>0</v>
+        <v>126.6237980382196</v>
       </c>
       <c r="L9" t="n">
         <v>232.285965523585</v>
       </c>
       <c r="M9" t="n">
-        <v>240.0046611659691</v>
+        <v>241.0142888776591</v>
       </c>
       <c r="N9" t="n">
-        <v>241.0142888776591</v>
+        <v>113.3808631277494</v>
       </c>
       <c r="O9" t="n">
         <v>241.0142888776591</v>
@@ -35410,25 +35410,25 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K11" t="n">
-        <v>404.6619937041513</v>
+        <v>404.6619937041511</v>
       </c>
       <c r="L11" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M11" t="n">
-        <v>634.1225133325445</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N11" t="n">
         <v>629.6034830521205</v>
       </c>
       <c r="O11" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P11" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q11" t="n">
-        <v>245.2070669901342</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R11" t="n">
         <v>0</v>
@@ -35486,25 +35486,25 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K12" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L12" t="n">
-        <v>506.8253423079597</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M12" t="n">
-        <v>178.2404695995112</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N12" t="n">
-        <v>265.9191627244604</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O12" t="n">
-        <v>552.1031129581708</v>
+        <v>259.8808641600984</v>
       </c>
       <c r="P12" t="n">
-        <v>425.9366065834113</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q12" t="n">
         <v>231.497271491105</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>2.005775453591767</v>
+        <v>2.005775453591781</v>
       </c>
       <c r="K13" t="n">
         <v>121.3082368265959</v>
@@ -35665,7 +35665,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q14" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901336</v>
       </c>
       <c r="R14" t="n">
         <v>0</v>
@@ -35723,25 +35723,25 @@
         <v>0</v>
       </c>
       <c r="J15" t="n">
-        <v>0</v>
+        <v>118.7131140633435</v>
       </c>
       <c r="K15" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L15" t="n">
-        <v>506.8253423079595</v>
+        <v>414.3527480864809</v>
       </c>
       <c r="M15" t="n">
         <v>178.2404695995111</v>
       </c>
       <c r="N15" t="n">
-        <v>384.6322767878044</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O15" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P15" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q15" t="n">
         <v>231.497271491105</v>
@@ -35802,16 +35802,16 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>2.005775453591738</v>
+        <v>2.005775453591781</v>
       </c>
       <c r="K16" t="n">
         <v>121.3082368265959</v>
       </c>
       <c r="L16" t="n">
-        <v>205.6095790168991</v>
+        <v>205.6095790168992</v>
       </c>
       <c r="M16" t="n">
-        <v>226.1705215179615</v>
+        <v>226.1705215179616</v>
       </c>
       <c r="N16" t="n">
         <v>226.7677401886561</v>
@@ -35823,7 +35823,7 @@
         <v>145.9059567350976</v>
       </c>
       <c r="Q16" t="n">
-        <v>23.02204415944465</v>
+        <v>23.02204415944468</v>
       </c>
       <c r="R16" t="n">
         <v>0</v>
@@ -35881,7 +35881,7 @@
         <v>0</v>
       </c>
       <c r="J17" t="n">
-        <v>188.6233759407489</v>
+        <v>188.6233759407481</v>
       </c>
       <c r="K17" t="n">
         <v>404.6619937041511</v>
@@ -35969,19 +35969,19 @@
         <v>506.8253423079595</v>
       </c>
       <c r="M18" t="n">
-        <v>246.6474810816486</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N18" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O18" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P18" t="n">
-        <v>425.9366065834112</v>
+        <v>225.0785314578443</v>
       </c>
       <c r="Q18" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R18" t="n">
         <v>0</v>
@@ -36039,28 +36039,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>63.39726981316134</v>
+        <v>63.3972698131615</v>
       </c>
       <c r="K19" t="n">
-        <v>182.6997311861655</v>
+        <v>182.6997311861656</v>
       </c>
       <c r="L19" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M19" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775313</v>
       </c>
       <c r="N19" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482259</v>
       </c>
       <c r="O19" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525462</v>
       </c>
       <c r="P19" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q19" t="n">
-        <v>84.41353851901425</v>
+        <v>84.41353851901441</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -36133,10 +36133,10 @@
         <v>629.6034830521205</v>
       </c>
       <c r="O20" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764645</v>
       </c>
       <c r="P20" t="n">
-        <v>430.3951648123254</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q20" t="n">
         <v>245.2070669901341</v>
@@ -36197,25 +36197,25 @@
         <v>0</v>
       </c>
       <c r="J21" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K21" t="n">
         <v>66.33422479839766</v>
       </c>
       <c r="L21" t="n">
-        <v>135.9849970045004</v>
+        <v>506.8253423079595</v>
       </c>
       <c r="M21" t="n">
         <v>643.9455333495109</v>
       </c>
       <c r="N21" t="n">
-        <v>676.8545255858767</v>
+        <v>197.5121512423232</v>
       </c>
       <c r="O21" t="n">
-        <v>552.1031129581706</v>
+        <v>537.9834117662303</v>
       </c>
       <c r="P21" t="n">
-        <v>184.601762288033</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q21" t="n">
         <v>231.497271491105</v>
@@ -36276,28 +36276,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>63.39726981316134</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K22" t="n">
         <v>182.6997311861655</v>
       </c>
       <c r="L22" t="n">
-        <v>267.0010733764688</v>
+        <v>267.0010733764689</v>
       </c>
       <c r="M22" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N22" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O22" t="n">
-        <v>256.228937352546</v>
+        <v>256.2289373525461</v>
       </c>
       <c r="P22" t="n">
-        <v>207.2974510946672</v>
+        <v>207.2974510946673</v>
       </c>
       <c r="Q22" t="n">
-        <v>84.41353851901425</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -36367,7 +36367,7 @@
         <v>634.1225133325443</v>
       </c>
       <c r="N23" t="n">
-        <v>629.6034830521216</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O23" t="n">
         <v>548.8726369764648</v>
@@ -36437,19 +36437,19 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K24" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L24" t="n">
-        <v>506.8253423079595</v>
+        <v>288.5124719858518</v>
       </c>
       <c r="M24" t="n">
-        <v>178.2404695995111</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N24" t="n">
-        <v>265.9191627244609</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O24" t="n">
-        <v>552.1031129581706</v>
+        <v>158.2407936814411</v>
       </c>
       <c r="P24" t="n">
         <v>425.9366065834112</v>
@@ -36513,7 +36513,7 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>63.39726981316134</v>
+        <v>63.3972698131614</v>
       </c>
       <c r="K25" t="n">
         <v>182.6997311861655</v>
@@ -36522,10 +36522,10 @@
         <v>267.0010733764688</v>
       </c>
       <c r="M25" t="n">
-        <v>287.5620158775311</v>
+        <v>287.5620158775312</v>
       </c>
       <c r="N25" t="n">
-        <v>288.1592345482257</v>
+        <v>288.1592345482258</v>
       </c>
       <c r="O25" t="n">
         <v>256.228937352546</v>
@@ -36534,7 +36534,7 @@
         <v>207.2974510946672</v>
       </c>
       <c r="Q25" t="n">
-        <v>84.41353851901425</v>
+        <v>84.41353851901431</v>
       </c>
       <c r="R25" t="n">
         <v>0</v>
@@ -36671,10 +36671,10 @@
         <v>0</v>
       </c>
       <c r="J27" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K27" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L27" t="n">
         <v>506.8253423079595</v>
@@ -36686,13 +36686,13 @@
         <v>676.8545255858767</v>
       </c>
       <c r="O27" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P27" t="n">
-        <v>153.2357869845741</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q27" t="n">
-        <v>21.41998375525586</v>
+        <v>56.49796459554847</v>
       </c>
       <c r="R27" t="n">
         <v>0</v>
@@ -36750,10 +36750,10 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>63.39726981316144</v>
+        <v>63.39726981316143</v>
       </c>
       <c r="K28" t="n">
-        <v>182.6997311861656</v>
+        <v>182.6997311861655</v>
       </c>
       <c r="L28" t="n">
         <v>267.0010733764689</v>
@@ -36771,7 +36771,7 @@
         <v>207.2974510946673</v>
       </c>
       <c r="Q28" t="n">
-        <v>84.41353851901435</v>
+        <v>84.41353851901434</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -36847,7 +36847,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P29" t="n">
-        <v>430.3951648123245</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q29" t="n">
         <v>245.2070669901341</v>
@@ -36908,25 +36908,25 @@
         <v>0</v>
       </c>
       <c r="J30" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K30" t="n">
         <v>330.7994618109763</v>
       </c>
       <c r="L30" t="n">
-        <v>506.8253423079595</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M30" t="n">
-        <v>246.6474810816486</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N30" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O30" t="n">
-        <v>552.1031129581706</v>
+        <v>483.4789143534946</v>
       </c>
       <c r="P30" t="n">
-        <v>425.9366065834112</v>
+        <v>107.473837943474</v>
       </c>
       <c r="Q30" t="n">
         <v>231.497271491105</v>
@@ -37148,25 +37148,25 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K33" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L33" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M33" t="n">
-        <v>479.6301946547619</v>
+        <v>178.2404695995111</v>
       </c>
       <c r="N33" t="n">
         <v>676.8545255858767</v>
       </c>
       <c r="O33" t="n">
-        <v>158.2407936814411</v>
+        <v>552.1031129581706</v>
       </c>
       <c r="P33" t="n">
-        <v>107.473837943474</v>
+        <v>425.9366065834112</v>
       </c>
       <c r="Q33" t="n">
-        <v>231.497271491105</v>
+        <v>85.02714564226768</v>
       </c>
       <c r="R33" t="n">
         <v>0</v>
@@ -37224,13 +37224,13 @@
         <v>0</v>
       </c>
       <c r="J34" t="n">
-        <v>69.49991256098753</v>
+        <v>69.49991256098754</v>
       </c>
       <c r="K34" t="n">
         <v>188.8023739339916</v>
       </c>
       <c r="L34" t="n">
-        <v>273.1037161242949</v>
+        <v>273.103716124295</v>
       </c>
       <c r="M34" t="n">
         <v>293.6646586253573</v>
@@ -37245,7 +37245,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q34" t="n">
-        <v>90.51618126684043</v>
+        <v>90.51618126684045</v>
       </c>
       <c r="R34" t="n">
         <v>0</v>
@@ -37306,22 +37306,22 @@
         <v>188.6233759407481</v>
       </c>
       <c r="K35" t="n">
-        <v>404.6619937041512</v>
+        <v>311.2637269789271</v>
       </c>
       <c r="L35" t="n">
-        <v>554.8236601362607</v>
+        <v>554.8236601362606</v>
       </c>
       <c r="M35" t="n">
-        <v>634.1225133325444</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N35" t="n">
-        <v>536.205216326897</v>
+        <v>629.6034830521205</v>
       </c>
       <c r="O35" t="n">
-        <v>548.8726369764649</v>
+        <v>548.8726369764648</v>
       </c>
       <c r="P35" t="n">
-        <v>430.3951648123247</v>
+        <v>430.3951648123246</v>
       </c>
       <c r="Q35" t="n">
         <v>245.2070669901341</v>
@@ -37385,16 +37385,16 @@
         <v>118.7131140633435</v>
       </c>
       <c r="K36" t="n">
-        <v>66.33422479839768</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L36" t="n">
-        <v>506.8253423079596</v>
+        <v>135.9849970045004</v>
       </c>
       <c r="M36" t="n">
-        <v>643.9455333495112</v>
+        <v>402.6106890541331</v>
       </c>
       <c r="N36" t="n">
-        <v>197.5121512423233</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O36" t="n">
         <v>552.1031129581706</v>
@@ -37403,7 +37403,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q36" t="n">
-        <v>98.66445623582086</v>
+        <v>231.497271491105</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37549,7 +37549,7 @@
         <v>554.8236601362606</v>
       </c>
       <c r="M38" t="n">
-        <v>540.7242466073207</v>
+        <v>634.1225133325443</v>
       </c>
       <c r="N38" t="n">
         <v>629.6034830521205</v>
@@ -37558,7 +37558,7 @@
         <v>548.8726369764648</v>
       </c>
       <c r="P38" t="n">
-        <v>430.3951648123246</v>
+        <v>336.9968980871009</v>
       </c>
       <c r="Q38" t="n">
         <v>245.2070669901341</v>
@@ -37619,28 +37619,28 @@
         <v>0</v>
       </c>
       <c r="J39" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L39" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M39" t="n">
-        <v>246.6474810816488</v>
+        <v>643.9455333495109</v>
       </c>
       <c r="N39" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O39" t="n">
         <v>552.1031129581706</v>
       </c>
       <c r="P39" t="n">
-        <v>425.9366065834112</v>
+        <v>142.5518187837667</v>
       </c>
       <c r="Q39" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R39" t="n">
         <v>0</v>
@@ -37789,7 +37789,7 @@
         <v>634.1225133325443</v>
       </c>
       <c r="N41" t="n">
-        <v>629.6034830521205</v>
+        <v>536.205216326896</v>
       </c>
       <c r="O41" t="n">
         <v>548.8726369764648</v>
@@ -37798,7 +37798,7 @@
         <v>430.3951648123246</v>
       </c>
       <c r="Q41" t="n">
-        <v>151.808800264911</v>
+        <v>245.2070669901341</v>
       </c>
       <c r="R41" t="n">
         <v>0</v>
@@ -37856,19 +37856,19 @@
         <v>0</v>
       </c>
       <c r="J42" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839766</v>
       </c>
       <c r="L42" t="n">
         <v>506.8253423079595</v>
       </c>
       <c r="M42" t="n">
-        <v>246.6474810816488</v>
+        <v>360.5607455498665</v>
       </c>
       <c r="N42" t="n">
-        <v>197.5121512423232</v>
+        <v>676.8545255858767</v>
       </c>
       <c r="O42" t="n">
         <v>552.1031129581706</v>
@@ -37877,7 +37877,7 @@
         <v>425.9366065834112</v>
       </c>
       <c r="Q42" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525586</v>
       </c>
       <c r="R42" t="n">
         <v>0</v>
@@ -37935,13 +37935,13 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>69.49991256098755</v>
+        <v>69.49991256098757</v>
       </c>
       <c r="K43" t="n">
         <v>188.8023739339917</v>
       </c>
       <c r="L43" t="n">
-        <v>273.103716124295</v>
+        <v>273.1037161242949</v>
       </c>
       <c r="M43" t="n">
         <v>293.6646586253573</v>
@@ -37956,7 +37956,7 @@
         <v>213.4000938424934</v>
       </c>
       <c r="Q43" t="n">
-        <v>90.51618126684046</v>
+        <v>90.51618126684048</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -38014,28 +38014,28 @@
         <v>0</v>
       </c>
       <c r="J44" t="n">
-        <v>95.22510921552498</v>
+        <v>188.623375940748</v>
       </c>
       <c r="K44" t="n">
-        <v>404.6619937041511</v>
+        <v>404.661993704151</v>
       </c>
       <c r="L44" t="n">
-        <v>554.8236601362606</v>
+        <v>554.8236601362605</v>
       </c>
       <c r="M44" t="n">
-        <v>634.1225133325443</v>
+        <v>634.122513332544</v>
       </c>
       <c r="N44" t="n">
-        <v>629.6034830521205</v>
+        <v>536.2052163268975</v>
       </c>
       <c r="O44" t="n">
-        <v>548.8726369764648</v>
+        <v>548.8726369764646</v>
       </c>
       <c r="P44" t="n">
-        <v>430.3951648123246</v>
+        <v>430.3951648123244</v>
       </c>
       <c r="Q44" t="n">
-        <v>245.2070669901341</v>
+        <v>245.2070669901339</v>
       </c>
       <c r="R44" t="n">
         <v>0</v>
@@ -38093,28 +38093,28 @@
         <v>0</v>
       </c>
       <c r="J45" t="n">
-        <v>118.7131140633435</v>
+        <v>0</v>
       </c>
       <c r="K45" t="n">
-        <v>330.7994618109763</v>
+        <v>66.33422479839751</v>
       </c>
       <c r="L45" t="n">
-        <v>506.8253423079595</v>
+        <v>506.8253423079594</v>
       </c>
       <c r="M45" t="n">
-        <v>178.2404695995111</v>
+        <v>360.560745549867</v>
       </c>
       <c r="N45" t="n">
-        <v>265.9191627244609</v>
+        <v>676.8545255858766</v>
       </c>
       <c r="O45" t="n">
-        <v>552.1031129581706</v>
+        <v>552.1031129581704</v>
       </c>
       <c r="P45" t="n">
-        <v>425.9366065834112</v>
+        <v>425.936606583411</v>
       </c>
       <c r="Q45" t="n">
-        <v>231.497271491105</v>
+        <v>21.41998375525577</v>
       </c>
       <c r="R45" t="n">
         <v>0</v>
@@ -38172,7 +38172,7 @@
         <v>0</v>
       </c>
       <c r="J46" t="n">
-        <v>69.49991256098751</v>
+        <v>69.49991256098753</v>
       </c>
       <c r="K46" t="n">
         <v>188.8023739339916</v>
@@ -38187,7 +38187,7 @@
         <v>294.2618772960519</v>
       </c>
       <c r="O46" t="n">
-        <v>262.3315801003722</v>
+        <v>262.3315801003721</v>
       </c>
       <c r="P46" t="n">
         <v>213.4000938424933</v>
